--- a/target/classes/companies/pharma/Abbvie/ABBV_Abbvie.xlsx
+++ b/target/classes/companies/pharma/Abbvie/ABBV_Abbvie.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -18693,7 +18693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -20123,8 +20123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21054,45 +21054,42 @@
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21" t="n">
-        <f>L25*(1+C46)</f>
-        <v>28710.719952464086</v>
-      </c>
-      <c r="D45" s="21" t="n">
-        <f>C45*(1+D46)</f>
-        <v>31007.57749732244</v>
-      </c>
-      <c r="E45" s="21" t="n">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>33488.183641662305</v>
+      <c r="C45" s="60" t="n">
+        <v>25762.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>25893.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>28196.0</v>
       </c>
       <c r="F45" s="21" t="n">
-        <f t="shared" si="8"/>
-        <v>36167.238273113726</v>
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>30451.679949581605</v>
       </c>
       <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>39060.61727029071</v>
+        <v>32887.81429109626</v>
       </c>
       <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>42185.466582068104</v>
+        <v>35518.83937557599</v>
       </c>
       <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>45560.30383320003</v>
+        <v>38360.346462109424</v>
       </c>
       <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>49205.128058387796</v>
+        <v>41429.174110484484</v>
       </c>
       <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>53141.53821507317</v>
+        <v>44743.5079652421</v>
       </c>
       <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>57392.86117725455</v>
+        <v>48322.98852245381</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21434,7 +21431,7 @@
       </c>
       <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>639356.493218893</v>
+        <v>538318.1087305191</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21443,7 +21440,7 @@
       </c>
       <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>330215.6281651739</v>
+        <v>278031.1990454403</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21456,7 +21453,7 @@
       </c>
       <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>448733.7225651555</v>
+        <v>396549.29344542185</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21466,7 +21463,7 @@
       </c>
       <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>253.6078550898936</v>
+        <v>224.11512817270838</v>
       </c>
     </row>
   </sheetData>
@@ -21562,7 +21559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>

--- a/target/classes/companies/pharma/Abbvie/ABBV_Abbvie.xlsx
+++ b/target/classes/companies/pharma/Abbvie/ABBV_Abbvie.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D87008F-4D84-43ED-991C-ED4982DC9D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
   <si>
     <t>WACC</t>
   </si>
@@ -497,15 +497,6 @@
   </si>
   <si>
     <t>EPS Growth esitmation (%)</t>
-  </si>
-  <si>
-    <t>CE_Celanese</t>
-  </si>
-  <si>
-    <t>sector median (19.16)</t>
-  </si>
-  <si>
-    <t>sector median (14.4)</t>
   </si>
   <si>
     <t>Long Term Debt</t>
@@ -1253,7 +1244,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1363,7 +1354,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,7 +1363,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,11 +1378,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1413,18 +1404,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1433,7 +1424,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1755,34 +1746,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16912442396313365</c:v>
+                  <c:v>0.21969132517296433</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1737724198765067E-2</c:v>
+                  <c:v>8.8877755511022047E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3577722946774764E-2</c:v>
+                  <c:v>0.22503171617306095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16700686583781776</c:v>
+                  <c:v>0.23219439893907481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13729641693811076</c:v>
+                  <c:v>0.18815565636518289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16869322152341021</c:v>
+                  <c:v>0.17363294965346684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13530252501191042</c:v>
+                  <c:v>0.23693861600432875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35101679929266139</c:v>
+                  <c:v>0.10077722469653305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22138924680801217</c:v>
+                  <c:v>0.20538462907272631</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1958027499224646</c:v>
+                  <c:v>0.20387914700106796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,34 +1911,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.28064516129032258</c:v>
+                  <c:v>0.34917509313464606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15524845633637166</c:v>
+                  <c:v>0.21027054108216434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1214310891787099</c:v>
+                  <c:v>0.36628898901964213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22805715346075339</c:v>
+                  <c:v>0.4106794601763008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19006514657980456</c:v>
+                  <c:v>0.39148001134108307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23522012578616353</c:v>
+                  <c:v>0.24877110493695234</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18897887883118947</c:v>
+                  <c:v>0.45091083989659109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18037135278514588</c:v>
+                  <c:v>0.38935464151602478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2722267775565187</c:v>
+                  <c:v>0.47057672117728705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19187428925876149</c:v>
+                  <c:v>0.4579184896820202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,34 +2076,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.9139784946236562E-2</c:v>
+                  <c:v>0.30739755188930284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1752425757130257E-2</c:v>
+                  <c:v>0.14714428857715431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0274938315121609E-2</c:v>
+                  <c:v>0.30635635854586812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12005938021896456</c:v>
+                  <c:v>0.25594820188782275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7296416938110744E-2</c:v>
+                  <c:v>0.33424298270484831</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17064989517819706</c:v>
+                  <c:v>0.39046804872836077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17214546609496587</c:v>
+                  <c:v>0.38393554981061745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17312113174182139</c:v>
+                  <c:v>0.36656187232556109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15110694623404006</c:v>
+                  <c:v>0.39130202679858356</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13191357386539854</c:v>
+                  <c:v>0.41768009094980535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,34 +2634,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17.280000686645508</c:v>
+                  <c:v>18.510000228881836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9099998474121094</c:v>
+                  <c:v>28.450000762939453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.739999771118164</c:v>
+                  <c:v>34.639999389648438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.079999923706055</c:v>
+                  <c:v>16.920000076293945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.399999618530273</c:v>
+                  <c:v>23.469999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2899999618530273</c:v>
+                  <c:v>19.129999160766602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.959999084472656</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.139999389648438</c:v>
+                  <c:v>23.090000152587891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8400001525878906</c:v>
+                  <c:v>32.709999084472656</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7399997711181641</c:v>
+                  <c:v>21.549999237060547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,34 +2848,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.220000267028809</c:v>
+                  <c:v>14.090000152587891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8900003433227539</c:v>
+                  <c:v>19.600000381469727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.619999885559082</c:v>
+                  <c:v>19.329999923706055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.770000457763672</c:v>
+                  <c:v>13.720000267028809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.469999313354492</c:v>
+                  <c:v>17.440000534057617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7899999618530273</c:v>
+                  <c:v>11.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.529999732971191</c:v>
+                  <c:v>9.8000001907348633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.140000343322754</c:v>
+                  <c:v>10.710000038146973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.199999809265137</c:v>
+                  <c:v>10.670000076293945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0100002288818359</c:v>
+                  <c:v>12.720000267028809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3312,34 +3303,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.9099998474121094</c:v>
+                  <c:v>2.559999942779541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1.1000000238418579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3.130000114440918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.179999828338623</c:v>
+                  <c:v>3.630000114440918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0900001525878906</c:v>
+                  <c:v>3.2999999523162842</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9099998474121094</c:v>
+                  <c:v>3.6600000858306885</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8400001525878906</c:v>
+                  <c:v>5.2800002098083496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.75</c:v>
+                  <c:v>2.7200000286102295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.860000610351563</c:v>
+                  <c:v>6.4499998092651367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.340000152587891</c:v>
+                  <c:v>6.630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3767,34 +3758,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6510</c:v>
+                  <c:v>18790</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6802</c:v>
+                  <c:v>19960</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5674</c:v>
+                  <c:v>22859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5389</c:v>
+                  <c:v>25638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6140</c:v>
+                  <c:v>28216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7155</c:v>
+                  <c:v>32753</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6297</c:v>
+                  <c:v>33266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5655</c:v>
+                  <c:v>45804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8537</c:v>
+                  <c:v>56197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9673</c:v>
+                  <c:v>58054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4201,34 +4192,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2887</c:v>
+                  <c:v>14292</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2586</c:v>
+                  <c:v>10538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2468</c:v>
+                  <c:v>29240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2890</c:v>
+                  <c:v>36440</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3315</c:v>
+                  <c:v>30953</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2970</c:v>
+                  <c:v>35002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3409</c:v>
+                  <c:v>62975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3227</c:v>
+                  <c:v>77554</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3176</c:v>
+                  <c:v>64189</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13373</c:v>
+                  <c:v>59135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4338,34 +4329,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1827</c:v>
+                  <c:v>6561</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1056</c:v>
+                  <c:v>4197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>689</c:v>
+                  <c:v>8373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1229</c:v>
+                  <c:v>10529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1167</c:v>
+                  <c:v>11046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1683</c:v>
+                  <c:v>8148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1190</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1020</c:v>
+                  <c:v>17834</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2324</c:v>
+                  <c:v>26445</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1856</c:v>
+                  <c:v>26584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4461,34 +4452,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.5801860974274768</c:v>
+                  <c:v>2.1783264746227711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4488636363636362</c:v>
+                  <c:v>2.5108410769597334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5820029027576199</c:v>
+                  <c:v>3.4921772363549506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3515052888527257</c:v>
+                  <c:v>3.4609174660461584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8406169665809768</c:v>
+                  <c:v>2.8021908383125114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7647058823529411</c:v>
+                  <c:v>4.2957781050564554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8647058823529412</c:v>
+                  <c:v>4.1983333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1637254901960783</c:v>
+                  <c:v>4.3486598631826849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3666092943201378</c:v>
+                  <c:v>2.4272641331064473</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2052801724137927</c:v>
+                  <c:v>2.2244583207944628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4957,34 +4948,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>385</c:v>
+                  <c:v>5776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284</c:v>
+                  <c:v>2937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>342</c:v>
+                  <c:v>7003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>647</c:v>
+                  <c:v>6562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536</c:v>
+                  <c:v>9431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1221</c:v>
+                  <c:v>12789</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1084</c:v>
+                  <c:v>12772</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>979</c:v>
+                  <c:v>16790</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1290</c:v>
+                  <c:v>21990</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1276</c:v>
+                  <c:v>24248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5094,34 +5085,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>2555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>2661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174</c:v>
+                  <c:v>3294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>201</c:v>
+                  <c:v>3717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241</c:v>
+                  <c:v>4107</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>280</c:v>
+                  <c:v>5580</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>6366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>293</c:v>
+                  <c:v>7716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304</c:v>
+                  <c:v>9261</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>297</c:v>
+                  <c:v>10043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5233,34 +5224,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21558441558441557</c:v>
+                  <c:v>0.44234764542936289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50704225352112675</c:v>
+                  <c:v>0.90602655771195095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50877192982456143</c:v>
+                  <c:v>0.47036984149650152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31066460587326122</c:v>
+                  <c:v>0.56644315757391039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44962686567164178</c:v>
+                  <c:v>0.43547874032446188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22932022932022933</c:v>
+                  <c:v>0.4363124560168895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2767527675276753</c:v>
+                  <c:v>0.498434074538052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2992849846782431</c:v>
+                  <c:v>0.45955926146515785</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23565891472868217</c:v>
+                  <c:v>0.42114597544338334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23275862068965517</c:v>
+                  <c:v>0.41417848894754206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5753,34 +5744,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5836</c:v>
+                  <c:v>11350</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6098</c:v>
+                  <c:v>11432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5799</c:v>
+                  <c:v>36736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5885</c:v>
+                  <c:v>49912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6746</c:v>
+                  <c:v>49563</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6439</c:v>
+                  <c:v>42407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6711</c:v>
+                  <c:v>39596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7146</c:v>
+                  <c:v>126392</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8168</c:v>
+                  <c:v>118601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19661</c:v>
+                  <c:v>110342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5890,34 +5881,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3182</c:v>
+                  <c:v>17848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2698</c:v>
+                  <c:v>16081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2787</c:v>
+                  <c:v>16314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2472</c:v>
+                  <c:v>16187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792</c:v>
+                  <c:v>21223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2874</c:v>
+                  <c:v>16945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2765</c:v>
+                  <c:v>49519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3763</c:v>
+                  <c:v>24173</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3807</c:v>
+                  <c:v>27928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6611</c:v>
+                  <c:v>28463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6319,34 +6310,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1545</c:v>
+                  <c:v>6879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1338</c:v>
+                  <c:v>11393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1550</c:v>
+                  <c:v>10894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1077</c:v>
+                  <c:v>9781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1559</c:v>
+                  <c:v>16641</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1779</c:v>
+                  <c:v>17239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1754</c:v>
+                  <c:v>15585</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1973</c:v>
+                  <c:v>28661</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2505</c:v>
+                  <c:v>35194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4068</c:v>
+                  <c:v>29538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6456,34 +6447,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4774</c:v>
+                  <c:v>17827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4380</c:v>
+                  <c:v>14378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4207</c:v>
+                  <c:v>38211</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4259</c:v>
+                  <c:v>51682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4680</c:v>
+                  <c:v>49048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155</c:v>
+                  <c:v>50559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4824</c:v>
+                  <c:v>81702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5041</c:v>
+                  <c:v>108807</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4933</c:v>
+                  <c:v>95899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16099</c:v>
+                  <c:v>91980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6885,34 +6876,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2699</c:v>
+                  <c:v>4492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3078</c:v>
+                  <c:v>1742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2829</c:v>
+                  <c:v>3945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3021</c:v>
+                  <c:v>4636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3299</c:v>
+                  <c:v>5097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3379</c:v>
+                  <c:v>-8446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2898</c:v>
+                  <c:v>-8172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3895</c:v>
+                  <c:v>13097</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4537</c:v>
+                  <c:v>15436</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6105</c:v>
+                  <c:v>17287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7002,34 +6993,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6319</c:v>
+                  <c:v>24706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5718</c:v>
+                  <c:v>25771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5757</c:v>
+                  <c:v>49105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5336</c:v>
+                  <c:v>61463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6239</c:v>
+                  <c:v>65689</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5934</c:v>
+                  <c:v>67798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6578</c:v>
+                  <c:v>97287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7014</c:v>
+                  <c:v>137468</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7438</c:v>
+                  <c:v>131093</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20167</c:v>
+                  <c:v>121518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7141,34 +7132,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.341237495368655</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8576998050682261</c:v>
+                  <c:v>14.793915040183697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0349946977730649</c:v>
+                  <c:v>12.447401774397973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7663025488248925</c:v>
+                  <c:v>13.257765314926662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8911791451955138</c:v>
+                  <c:v>12.887777123798312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7561408700799053</c:v>
+                  <c:v>-8.0272318257163153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2698412698412698</c:v>
+                  <c:v>-11.904919236417033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8007702182284981</c:v>
+                  <c:v>10.496144155150034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6394093013004187</c:v>
+                  <c:v>8.4926794506348795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3033579033579032</c:v>
+                  <c:v>7.0294440909353852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7604,34 +7595,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3182</c:v>
+                  <c:v>17848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2698</c:v>
+                  <c:v>16081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2787</c:v>
+                  <c:v>16314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2472</c:v>
+                  <c:v>16187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792</c:v>
+                  <c:v>21223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2874</c:v>
+                  <c:v>16945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2765</c:v>
+                  <c:v>49519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3763</c:v>
+                  <c:v>24173</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3807</c:v>
+                  <c:v>27928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6611</c:v>
+                  <c:v>28463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7721,34 +7712,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1545</c:v>
+                  <c:v>6879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1338</c:v>
+                  <c:v>11393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1550</c:v>
+                  <c:v>10894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1077</c:v>
+                  <c:v>9781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1559</c:v>
+                  <c:v>16641</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1779</c:v>
+                  <c:v>17239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1754</c:v>
+                  <c:v>15585</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1973</c:v>
+                  <c:v>28661</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2505</c:v>
+                  <c:v>35194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4068</c:v>
+                  <c:v>29538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7899,34 +7890,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.0595469255663432</c:v>
+                  <c:v>2.5945631632504726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0164424514200299</c:v>
+                  <c:v>1.4114807337839024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7980645161290323</c:v>
+                  <c:v>1.4975215715072516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2952646239554317</c:v>
+                  <c:v>1.6549432573356508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.790891597177678</c:v>
+                  <c:v>1.2753440298059011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.615514333895447</c:v>
+                  <c:v>0.9829456464992169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5763968072976056</c:v>
+                  <c:v>3.177350016041065</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9072478459199189</c:v>
+                  <c:v>0.84341090680715958</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5197604790419161</c:v>
+                  <c:v>0.79354435415127578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6251229105211407</c:v>
+                  <c:v>0.9636062021802424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8479,34 +8470,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1827</c:v>
+                  <c:v>6561</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1056</c:v>
+                  <c:v>4197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>689</c:v>
+                  <c:v>8373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1229</c:v>
+                  <c:v>10529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1167</c:v>
+                  <c:v>11046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1683</c:v>
+                  <c:v>8148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1190</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1020</c:v>
+                  <c:v>17834</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2324</c:v>
+                  <c:v>26445</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1856</c:v>
+                  <c:v>26584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8672,34 +8663,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1101</c:v>
+                  <c:v>4128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>624</c:v>
+                  <c:v>1774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304</c:v>
+                  <c:v>5144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>900</c:v>
+                  <c:v>5953</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>843</c:v>
+                  <c:v>5309</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1207</c:v>
+                  <c:v>5687</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>852</c:v>
+                  <c:v>7882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1985</c:v>
+                  <c:v>4616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1890</c:v>
+                  <c:v>11542</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1894</c:v>
+                  <c:v>11836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8868,34 +8859,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>385</c:v>
+                  <c:v>5776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284</c:v>
+                  <c:v>2937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>342</c:v>
+                  <c:v>7003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>647</c:v>
+                  <c:v>6562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536</c:v>
+                  <c:v>9431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1221</c:v>
+                  <c:v>12789</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1084</c:v>
+                  <c:v>12772</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>979</c:v>
+                  <c:v>16790</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1290</c:v>
+                  <c:v>21990</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1276</c:v>
+                  <c:v>24248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9308,34 +9299,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.208915502328676</c:v>
+                  <c:v>14.137954654428386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.094133697135061</c:v>
+                  <c:v>6.4478610111583619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5406475658047984</c:v>
+                  <c:v>9.6965127238454283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.769414861792509</c:v>
+                  <c:v>9.0061876881647223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8383308869784027</c:v>
+                  <c:v>7.5000706354363853</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.960377966283689</c:v>
+                  <c:v>9.5818169564631344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.99113550021106</c:v>
+                  <c:v>8.8447511642260004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.195984966541388</c:v>
+                  <c:v>3.0657855411284163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.782881002087683</c:v>
+                  <c:v>7.8769390359587526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2091961023142508</c:v>
+                  <c:v>8.5270703504916963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9472,34 +9463,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40.792886254168209</c:v>
+                  <c:v>91.896705253784503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.2729044834308</c:v>
+                  <c:v>101.83696900114811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.745846588900672</c:v>
+                  <c:v>130.39290240811152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.791459781529294</c:v>
+                  <c:v>128.40811044003451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.553197938769323</c:v>
+                  <c:v>104.15930939768491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.720627404557561</c:v>
+                  <c:v>-67.333649064645982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.399585921325052</c:v>
+                  <c:v>-96.45129711209006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.96277278562259</c:v>
+                  <c:v>35.244712529586927</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.657482918227906</c:v>
+                  <c:v>74.773257320549362</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.023751023751025</c:v>
+                  <c:v>68.467634638745878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9636,34 +9627,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>22.989999771118164</c:v>
+                  <c:v>22.709999084472656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.75</c:v>
+                  <c:v>11.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8600001335144043</c:v>
+                  <c:v>21.659999847412109</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.329999923706055</c:v>
+                  <c:v>17.270000457763672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.489999771118164</c:v>
+                  <c:v>14.239999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.989999771118164</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.409999847412109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.430000305175781</c:v>
+                  <c:v>7.8899998664855957</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.680000305175781</c:v>
+                  <c:v>14.210000038146973</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.380000114440918</c:v>
+                  <c:v>15.729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10119,34 +10110,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>159.33399963378906</c:v>
+                  <c:v>1604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.16700744628906</c:v>
+                  <c:v>1610</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.28799438476563</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145.66799926757813</c:v>
+                  <c:v>1631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138.31700134277344</c:v>
+                  <c:v>1603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135.41700744628906</c:v>
+                  <c:v>1546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124.65200042724609</c:v>
+                  <c:v>1484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>118.48100280761719</c:v>
+                  <c:v>1673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112.08399963378906</c:v>
+                  <c:v>1777</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109.23500061035156</c:v>
+                  <c:v>1778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18077,7 +18068,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18171,7 +18162,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18694,23 +18685,23 @@
   <dimension ref="B2:V47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
-    <col min="4" max="4" customWidth="true" width="7.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
-    <col min="6" max="6" customWidth="true" width="19.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18864,49 +18855,49 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123" t="n">
+      <c r="F12" s="123">
         <f>AVERAGE(L12:P12)</f>
-        <v>7.5792726096536</v>
-      </c>
-      <c r="G12" s="119" t="n">
+        <v>7.5792726096536001</v>
+      </c>
+      <c r="G12" s="119">
         <f>Financials!D76</f>
         <v>14.137954654428386</v>
       </c>
-      <c r="H12" s="119" t="n">
+      <c r="H12" s="119">
         <f>Financials!E76</f>
-        <v>6.447861011158362</v>
-      </c>
-      <c r="I12" s="119" t="n">
+        <v>6.4478610111583619</v>
+      </c>
+      <c r="I12" s="119">
         <f>Financials!F76</f>
-        <v>9.696512723845428</v>
-      </c>
-      <c r="J12" s="119" t="n">
+        <v>9.6965127238454283</v>
+      </c>
+      <c r="J12" s="119">
         <f>Financials!G76</f>
-        <v>9.006187688164722</v>
-      </c>
-      <c r="K12" s="119" t="n">
+        <v>9.0061876881647223</v>
+      </c>
+      <c r="K12" s="119">
         <f>Financials!H76</f>
-        <v>7.500070635436385</v>
-      </c>
-      <c r="L12" s="119" t="n">
+        <v>7.5000706354363853</v>
+      </c>
+      <c r="L12" s="119">
         <f>Financials!I76</f>
-        <v>9.581816956463134</v>
-      </c>
-      <c r="M12" s="119" t="n">
+        <v>9.5818169564631344</v>
+      </c>
+      <c r="M12" s="119">
         <f>Financials!J76</f>
-        <v>8.844751164226</v>
-      </c>
-      <c r="N12" s="119" t="n">
+        <v>8.8447511642260004</v>
+      </c>
+      <c r="N12" s="119">
         <f>Financials!K76</f>
         <v>3.0657855411284163</v>
       </c>
-      <c r="O12" s="119" t="n">
+      <c r="O12" s="119">
         <f>Financials!L76</f>
         <v>7.8769390359587526</v>
       </c>
-      <c r="P12" s="119" t="n">
+      <c r="P12" s="119">
         <f>Financials!M76</f>
-        <v>8.527070350491696</v>
+        <v>8.5270703504916963</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -18938,49 +18929,49 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124" t="n">
+      <c r="F14" s="124">
         <f>AVERAGE(L14:P14)</f>
-        <v>2.940131662429226</v>
-      </c>
-      <c r="G14" s="40" t="n">
+        <v>2.9401316624292262</v>
+      </c>
+      <c r="G14" s="40">
         <f>Financials!D77</f>
-        <v>91.8967052537845</v>
-      </c>
-      <c r="H14" s="40" t="n">
+        <v>91.896705253784503</v>
+      </c>
+      <c r="H14" s="40">
         <f>Financials!E77</f>
-        <v>101.8369690011481</v>
-      </c>
-      <c r="I14" s="40" t="n">
+        <v>101.83696900114811</v>
+      </c>
+      <c r="I14" s="40">
         <f>Financials!F77</f>
         <v>130.39290240811152</v>
       </c>
-      <c r="J14" s="40" t="n">
+      <c r="J14" s="40">
         <f>Financials!G77</f>
-        <v>128.4081104400345</v>
-      </c>
-      <c r="K14" s="40" t="n">
+        <v>128.40811044003451</v>
+      </c>
+      <c r="K14" s="40">
         <f>Financials!H77</f>
         <v>104.15930939768491</v>
       </c>
-      <c r="L14" s="40" t="n">
+      <c r="L14" s="40">
         <f>Financials!I77</f>
-        <v>-67.33364906464598</v>
-      </c>
-      <c r="M14" s="40" t="n">
+        <v>-67.333649064645982</v>
+      </c>
+      <c r="M14" s="40">
         <f>Financials!J77</f>
         <v>-96.45129711209006</v>
       </c>
-      <c r="N14" s="40" t="n">
+      <c r="N14" s="40">
         <f>Financials!K77</f>
-        <v>35.24471252958693</v>
-      </c>
-      <c r="O14" s="40" t="n">
+        <v>35.244712529586927</v>
+      </c>
+      <c r="O14" s="40">
         <f>Financials!L77</f>
-        <v>74.77325732054936</v>
-      </c>
-      <c r="P14" s="40" t="n">
+        <v>74.773257320549362</v>
+      </c>
+      <c r="P14" s="40">
         <f>Financials!M77</f>
-        <v>68.46763463874588</v>
+        <v>68.467634638745878</v>
       </c>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
@@ -19015,51 +19006,51 @@
         <f>T11</f>
         <v>J</v>
       </c>
-      <c r="E16" s="47" t="n">
+      <c r="E16" s="47">
         <f>WACC!$C$25</f>
-        <v>0.061905696694895776</v>
-      </c>
-      <c r="F16" s="124" t="n">
+        <v>6.1905696694895776E-2</v>
+      </c>
+      <c r="F16" s="124">
         <f>AVERAGE(L16:P16)</f>
-        <v>7.56599988937378</v>
-      </c>
-      <c r="G16" s="40" t="n">
+        <v>7.5659998893737797</v>
+      </c>
+      <c r="G16" s="40">
         <f>Financials!D78</f>
         <v>22.709999084472656</v>
       </c>
-      <c r="H16" s="40" t="n">
+      <c r="H16" s="40">
         <f>Financials!E78</f>
         <v>11.489999771118164</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="40">
         <f>Financials!F78</f>
-        <v>21.65999984741211</v>
-      </c>
-      <c r="J16" s="40" t="n">
+        <v>21.659999847412109</v>
+      </c>
+      <c r="J16" s="40">
         <f>Financials!G78</f>
         <v>17.270000457763672</v>
       </c>
-      <c r="K16" s="40" t="n">
+      <c r="K16" s="40">
         <f>Financials!H78</f>
         <v>14.239999771118164</v>
       </c>
-      <c r="L16" s="40" t="n">
+      <c r="L16" s="40">
         <f>Financials!I78</f>
-        <v>0.0</v>
-      </c>
-      <c r="M16" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="40">
         <f>Financials!J78</f>
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="40">
         <f>Financials!K78</f>
-        <v>7.889999866485596</v>
-      </c>
-      <c r="O16" s="40" t="n">
+        <v>7.8899998664855957</v>
+      </c>
+      <c r="O16" s="40">
         <f>Financials!L78</f>
         <v>14.210000038146973</v>
       </c>
-      <c r="P16" s="40" t="n">
+      <c r="P16" s="40">
         <f>Financials!M78</f>
         <v>15.729999542236328</v>
       </c>
@@ -19102,47 +19093,47 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125" t="n">
+      <c r="F18" s="125">
         <f>AVERAGE(L18:P18)</f>
         <v>1.3521714251357921</v>
       </c>
-      <c r="G18" s="42" t="n">
+      <c r="G18" s="42">
         <f>Financials!D59</f>
         <v>2.5945631632504726</v>
       </c>
-      <c r="H18" s="42" t="n">
+      <c r="H18" s="42">
         <f>Financials!E59</f>
         <v>1.4114807337839024</v>
       </c>
-      <c r="I18" s="42" t="n">
+      <c r="I18" s="42">
         <f>Financials!F59</f>
         <v>1.4975215715072516</v>
       </c>
-      <c r="J18" s="42" t="n">
+      <c r="J18" s="42">
         <f>Financials!G59</f>
         <v>1.6549432573356508</v>
       </c>
-      <c r="K18" s="42" t="n">
+      <c r="K18" s="42">
         <f>Financials!H59</f>
         <v>1.2753440298059011</v>
       </c>
-      <c r="L18" s="42" t="n">
+      <c r="L18" s="42">
         <f>Financials!I59</f>
         <v>0.9829456464992169</v>
       </c>
-      <c r="M18" s="42" t="n">
+      <c r="M18" s="42">
         <f>Financials!J59</f>
         <v>3.177350016041065</v>
       </c>
-      <c r="N18" s="42" t="n">
+      <c r="N18" s="42">
         <f>Financials!K59</f>
-        <v>0.8434109068071596</v>
-      </c>
-      <c r="O18" s="42" t="n">
+        <v>0.84341090680715958</v>
+      </c>
+      <c r="O18" s="42">
         <f>Financials!L59</f>
-        <v>0.7935443541512758</v>
-      </c>
-      <c r="P18" s="42" t="n">
+        <v>0.79354435415127578</v>
+      </c>
+      <c r="P18" s="42">
         <f>Financials!M59</f>
         <v>0.9636062021802424</v>
       </c>
@@ -19175,7 +19166,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D20" s="55" t="str">
         <f>U11</f>
@@ -19184,49 +19175,49 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125" t="n">
+      <c r="F20" s="125">
         <f>AVERAGE(L20:P20)</f>
         <v>1.2172233269173898</v>
       </c>
-      <c r="G20" s="42" t="n">
+      <c r="G20" s="42">
         <f>Financials!D58</f>
         <v>5.5</v>
       </c>
-      <c r="H20" s="42" t="n">
+      <c r="H20" s="42">
         <f>Financials!E58</f>
         <v>14.793915040183697</v>
       </c>
-      <c r="I20" s="42" t="n">
+      <c r="I20" s="42">
         <f>Financials!F58</f>
         <v>12.447401774397973</v>
       </c>
-      <c r="J20" s="42" t="n">
+      <c r="J20" s="42">
         <f>Financials!G58</f>
         <v>13.257765314926662</v>
       </c>
-      <c r="K20" s="42" t="n">
+      <c r="K20" s="42">
         <f>Financials!H58</f>
         <v>12.887777123798312</v>
       </c>
-      <c r="L20" s="42" t="n">
+      <c r="L20" s="42">
         <f>Financials!I58</f>
-        <v>-8.027231825716315</v>
-      </c>
-      <c r="M20" s="42" t="n">
+        <v>-8.0272318257163153</v>
+      </c>
+      <c r="M20" s="42">
         <f>Financials!J58</f>
         <v>-11.904919236417033</v>
       </c>
-      <c r="N20" s="42" t="n">
+      <c r="N20" s="42">
         <f>Financials!K58</f>
         <v>10.496144155150034</v>
       </c>
-      <c r="O20" s="42" t="n">
+      <c r="O20" s="42">
         <f>Financials!L58</f>
-        <v>8.49267945063488</v>
-      </c>
-      <c r="P20" s="42" t="n">
+        <v>8.4926794506348795</v>
+      </c>
+      <c r="P20" s="42">
         <f>Financials!M58</f>
-        <v>7.029444090935385</v>
+        <v>7.0294440909353852</v>
       </c>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
@@ -19257,58 +19248,58 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D22" s="55" t="str">
         <f>U11</f>
         <v>K</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="125" t="n">
+        <v>158</v>
+      </c>
+      <c r="F22" s="125">
         <f>AVERAGE(L22:P22)</f>
         <v>3.4988987510946763</v>
       </c>
-      <c r="G22" s="42" t="n">
+      <c r="G22" s="42">
         <f>Financials!D60</f>
-        <v>2.178326474622771</v>
-      </c>
-      <c r="H22" s="42" t="n">
+        <v>2.1783264746227711</v>
+      </c>
+      <c r="H22" s="42">
         <f>Financials!E60</f>
         <v>2.5108410769597334</v>
       </c>
-      <c r="I22" s="42" t="n">
+      <c r="I22" s="42">
         <f>Financials!F60</f>
         <v>3.4921772363549506</v>
       </c>
-      <c r="J22" s="42" t="n">
+      <c r="J22" s="42">
         <f>Financials!G60</f>
         <v>3.4609174660461584</v>
       </c>
-      <c r="K22" s="42" t="n">
+      <c r="K22" s="42">
         <f>Financials!H60</f>
         <v>2.8021908383125114</v>
       </c>
-      <c r="L22" s="42" t="n">
+      <c r="L22" s="42">
         <f>Financials!I60</f>
-        <v>4.295778105056455</v>
-      </c>
-      <c r="M22" s="42" t="n">
+        <v>4.2957781050564554</v>
+      </c>
+      <c r="M22" s="42">
         <f>Financials!J60</f>
-        <v>4.198333333333333</v>
-      </c>
-      <c r="N22" s="42" t="n">
+        <v>4.1983333333333333</v>
+      </c>
+      <c r="N22" s="42">
         <f>Financials!K60</f>
-        <v>4.348659863182685</v>
-      </c>
-      <c r="O22" s="42" t="n">
+        <v>4.3486598631826849</v>
+      </c>
+      <c r="O22" s="42">
         <f>Financials!L60</f>
         <v>2.4272641331064473</v>
       </c>
-      <c r="P22" s="42" t="n">
+      <c r="P22" s="42">
         <f>Financials!M60</f>
-        <v>2.224458320794463</v>
+        <v>2.2244583207944628</v>
       </c>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
@@ -19351,45 +19342,45 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40" t="n">
+      <c r="G24" s="40">
         <f>Financials!D12</f>
-        <v>1604.0</v>
-      </c>
-      <c r="H24" s="40" t="n">
+        <v>1604</v>
+      </c>
+      <c r="H24" s="40">
         <f>Financials!E12</f>
-        <v>1610.0</v>
-      </c>
-      <c r="I24" s="40" t="n">
+        <v>1610</v>
+      </c>
+      <c r="I24" s="40">
         <f>Financials!F12</f>
-        <v>1637.0</v>
-      </c>
-      <c r="J24" s="40" t="n">
+        <v>1637</v>
+      </c>
+      <c r="J24" s="40">
         <f>Financials!G12</f>
-        <v>1631.0</v>
-      </c>
-      <c r="K24" s="40" t="n">
+        <v>1631</v>
+      </c>
+      <c r="K24" s="40">
         <f>Financials!H12</f>
-        <v>1603.0</v>
-      </c>
-      <c r="L24" s="40" t="n">
+        <v>1603</v>
+      </c>
+      <c r="L24" s="40">
         <f>Financials!I12</f>
-        <v>1546.0</v>
-      </c>
-      <c r="M24" s="40" t="n">
+        <v>1546</v>
+      </c>
+      <c r="M24" s="40">
         <f>Financials!J12</f>
-        <v>1484.0</v>
-      </c>
-      <c r="N24" s="40" t="n">
+        <v>1484</v>
+      </c>
+      <c r="N24" s="40">
         <f>Financials!K12</f>
-        <v>1673.0</v>
-      </c>
-      <c r="O24" s="40" t="n">
+        <v>1673</v>
+      </c>
+      <c r="O24" s="40">
         <f>Financials!L12</f>
-        <v>1777.0</v>
-      </c>
-      <c r="P24" s="40" t="n">
+        <v>1777</v>
+      </c>
+      <c r="P24" s="40">
         <f>Financials!M12</f>
-        <v>1778.0</v>
+        <v>1778</v>
       </c>
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
@@ -19429,49 +19420,49 @@
         <v>L</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="57" t="n">
+        <v>160</v>
+      </c>
+      <c r="F26" s="57">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
         <v>27.09599952697754</v>
       </c>
-      <c r="G26" s="44" t="n">
+      <c r="G26" s="44">
         <f>Financials!D81</f>
         <v>18.510000228881836</v>
       </c>
-      <c r="H26" s="44" t="n">
+      <c r="H26" s="44">
         <f>Financials!E81</f>
         <v>28.450000762939453</v>
       </c>
-      <c r="I26" s="44" t="n">
+      <c r="I26" s="44">
         <f>Financials!F81</f>
-        <v>34.63999938964844</v>
-      </c>
-      <c r="J26" s="44" t="n">
+        <v>34.639999389648438</v>
+      </c>
+      <c r="J26" s="44">
         <f>Financials!G81</f>
         <v>16.920000076293945</v>
       </c>
-      <c r="K26" s="44" t="n">
+      <c r="K26" s="44">
         <f>Financials!H81</f>
         <v>23.469999313354492</v>
       </c>
-      <c r="L26" s="44" t="n">
+      <c r="L26" s="44">
         <f>Financials!I81</f>
-        <v>19.1299991607666</v>
-      </c>
-      <c r="M26" s="44" t="n">
+        <v>19.129999160766602</v>
+      </c>
+      <c r="M26" s="44">
         <f>Financials!J81</f>
-        <v>39.0</v>
-      </c>
-      <c r="N26" s="44" t="n">
+        <v>39</v>
+      </c>
+      <c r="N26" s="44">
         <f>Financials!K81</f>
-        <v>23.09000015258789</v>
-      </c>
-      <c r="O26" s="44" t="n">
+        <v>23.090000152587891</v>
+      </c>
+      <c r="O26" s="44">
         <f>Financials!L81</f>
         <v>32.709999084472656</v>
       </c>
-      <c r="P26" s="44" t="n">
+      <c r="P26" s="44">
         <f>Financials!M81</f>
         <v>21.549999237060547</v>
       </c>
@@ -19511,49 +19502,49 @@
         <v>J</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="57" t="n">
+        <v>161</v>
+      </c>
+      <c r="F28" s="57">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
-        <v>11.07800006866455</v>
-      </c>
-      <c r="G28" s="44" t="n">
+        <v>11.078000068664551</v>
+      </c>
+      <c r="G28" s="44">
         <f>Financials!D82</f>
-        <v>14.09000015258789</v>
-      </c>
-      <c r="H28" s="44" t="n">
+        <v>14.090000152587891</v>
+      </c>
+      <c r="H28" s="44">
         <f>Financials!E82</f>
         <v>19.600000381469727</v>
       </c>
-      <c r="I28" s="44" t="n">
+      <c r="I28" s="44">
         <f>Financials!F82</f>
         <v>19.329999923706055</v>
       </c>
-      <c r="J28" s="44" t="n">
+      <c r="J28" s="44">
         <f>Financials!G82</f>
         <v>13.720000267028809</v>
       </c>
-      <c r="K28" s="44" t="n">
+      <c r="K28" s="44">
         <f>Financials!H82</f>
         <v>17.440000534057617</v>
       </c>
-      <c r="L28" s="44" t="n">
+      <c r="L28" s="44">
         <f>Financials!I82</f>
         <v>11.489999771118164</v>
       </c>
-      <c r="M28" s="44" t="n">
+      <c r="M28" s="44">
         <f>Financials!J82</f>
-        <v>9.800000190734863</v>
-      </c>
-      <c r="N28" s="44" t="n">
+        <v>9.8000001907348633</v>
+      </c>
+      <c r="N28" s="44">
         <f>Financials!K82</f>
         <v>10.710000038146973</v>
       </c>
-      <c r="O28" s="44" t="n">
+      <c r="O28" s="44">
         <f>Financials!L82</f>
         <v>10.670000076293945</v>
       </c>
-      <c r="P28" s="44" t="n">
+      <c r="P28" s="44">
         <f>Financials!M82</f>
         <v>12.720000267028809</v>
       </c>
@@ -19591,9 +19582,9 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127" t="n">
+      <c r="F30" s="127">
         <f>Financials!$C$83</f>
-        <v>3.990000009536743</v>
+        <v>3.9900000095367432</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
@@ -19627,7 +19618,7 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52" t="n">
+      <c r="F32" s="52">
         <f>Financials!D63</f>
         <v>0.13649588400268642</v>
       </c>
@@ -19644,7 +19635,7 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52" t="n">
+      <c r="F33" s="52">
         <f>Financials!D64</f>
         <v>0.15426326403797708</v>
       </c>
@@ -19668,9 +19659,9 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52" t="n">
+      <c r="F35" s="52">
         <f>Financials!D69</f>
-        <v>0.2668169383126058</v>
+        <v>0.26681693831260578</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="18.5">
@@ -19685,9 +19676,9 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52" t="n">
+      <c r="F36" s="52">
         <f>Financials!D70</f>
-        <v>0.3229092651632963</v>
+        <v>0.32290926516329632</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -19710,7 +19701,7 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52" t="n">
+      <c r="F38" s="52">
         <f>Financials!D65</f>
         <v>0.15788211475917868</v>
       </c>
@@ -19727,7 +19718,7 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52" t="n">
+      <c r="F39" s="52">
         <f>Financials!D66</f>
         <v>0.11108306144077407</v>
       </c>
@@ -19751,7 +19742,7 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52" t="n">
+      <c r="F41" s="52">
         <f>Financials!D67</f>
         <v>0.12128551705139334</v>
       </c>
@@ -19768,7 +19759,7 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52" t="n">
+      <c r="F42" s="52">
         <f>Financials!D68</f>
         <v>0.11941349150526581</v>
       </c>
@@ -19790,9 +19781,9 @@
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103" t="n">
+      <c r="F44" s="103">
         <f>Financials!$D$73</f>
-        <v>0.4459260512822049</v>
+        <v>0.44592605128220492</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="18.5">
@@ -19807,7 +19798,7 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103" t="n">
+      <c r="F45" s="103">
         <f>Financials!D71</f>
         <v>0.12472371587191211</v>
       </c>
@@ -19824,7 +19815,7 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103" t="n">
+      <c r="F46" s="103">
         <f>Financials!D72</f>
         <v>0.19925073310688862</v>
       </c>
@@ -19841,7 +19832,7 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102" t="n">
+      <c r="F47" s="102">
         <f>F45+F46</f>
         <v>0.32397444897880073</v>
       </c>
@@ -19865,13 +19856,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T129" sqref="T129"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X140" sqref="X140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19889,9 +19880,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
+    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19919,7 +19910,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s" s="0">
+      <c r="P4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19927,56 +19918,56 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58" t="n">
-        <v>281.5400085449219</v>
+      <c r="C5" s="58">
+        <v>281.54000854492188</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59" t="n">
-        <v>2.9538E7</v>
+      <c r="C6" s="59">
+        <v>29538000</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59" t="n">
-        <v>9.198E7</v>
+      <c r="C7" s="59">
+        <v>91980000</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59" t="n">
-        <v>2230000.0</v>
+      <c r="C8" s="59">
+        <v>2230000</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59" t="n">
-        <v>1.3477E7</v>
+      <c r="C9" s="59">
+        <v>13477000</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59" t="n">
-        <v>1632000.0</v>
+      <c r="C10" s="59">
+        <v>1632000</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60" t="n">
-        <v>0.550000011920929</v>
+      <c r="C11" s="60">
+        <v>0.55000001192092896</v>
       </c>
       <c r="G11" s="33"/>
     </row>
@@ -20001,7 +19992,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s" s="0">
+      <c r="K15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -20009,38 +20000,38 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="11">
         <f>SUM(C6:C7)</f>
-        <v>1.21518E8</v>
+        <v>121518000</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="12">
         <f>C8/C17</f>
-        <v>0.018351190770091674</v>
+        <v>1.8351190770091674E-2</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="12">
         <f>C14+C11*(C15-C14)</f>
-        <v>0.08085000103712082</v>
+        <v>8.0850001037120825E-2</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12" t="n">
+      <c r="C20" s="12">
         <f>C8/C17</f>
-        <v>0.018351190770091674</v>
-      </c>
-      <c r="K20" t="s" s="0">
+        <v>1.8351190770091674E-2</v>
+      </c>
+      <c r="K20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -20048,11 +20039,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="11">
         <f>C17+C5*1000000</f>
-        <v>4.03058008544922E8</v>
-      </c>
-      <c r="K21" t="s" s="0">
+        <v>403058008.54492199</v>
+      </c>
+      <c r="K21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -20060,11 +20051,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12" t="n">
+      <c r="C22" s="12">
         <f>C5*1000000/C21</f>
         <v>0.6985098982682626</v>
       </c>
-      <c r="K22" t="s" s="0">
+      <c r="K22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -20072,7 +20063,7 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12" t="n">
+      <c r="C23" s="12">
         <f>C17/C21</f>
         <v>0.30149010173173735</v>
       </c>
@@ -20088,9 +20079,9 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17" t="n">
+      <c r="C25" s="17">
         <f>C23*C20*(1-C18)+C22*C19</f>
-        <v>0.061905696694895776</v>
+        <v>6.1905696694895776E-2</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -20123,20 +20114,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
+    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20149,9 +20140,9 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="20">
         <f>WACC!C25</f>
-        <v>0.061905696694895776</v>
+        <v>6.1905696694895776E-2</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -20166,15 +20157,15 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65" t="n">
-        <v>0.009999999776482582</v>
+      <c r="C6" s="65">
+        <v>9.9999997764825821E-3</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="13">
         <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
         <v>0.18745634185894278</v>
       </c>
@@ -20183,7 +20174,7 @@
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="13">
         <f>AVERAGEIF(C29:L29,"&lt;2")</f>
         <v>1.5457903914692772</v>
       </c>
@@ -20192,7 +20183,7 @@
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66" t="n">
+      <c r="C9" s="66">
         <v>11.140000343322754</v>
       </c>
     </row>
@@ -20200,16 +20191,16 @@
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67" t="n">
-        <v>0.07999999821186066</v>
+      <c r="C10" s="67">
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59" t="n">
-        <v>1.769399936E9</v>
+      <c r="C11" s="59">
+        <v>1769399936</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20259,45 +20250,45 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21" t="n">
+      <c r="C16" s="21">
         <f>Financials!D3</f>
-        <v>18790.0</v>
-      </c>
-      <c r="D16" s="21" t="n">
+        <v>18790</v>
+      </c>
+      <c r="D16" s="21">
         <f>Financials!E3</f>
-        <v>19960.0</v>
-      </c>
-      <c r="E16" s="21" t="n">
+        <v>19960</v>
+      </c>
+      <c r="E16" s="21">
         <f>Financials!F3</f>
-        <v>22859.0</v>
-      </c>
-      <c r="F16" s="21" t="n">
+        <v>22859</v>
+      </c>
+      <c r="F16" s="21">
         <f>Financials!G3</f>
-        <v>25638.0</v>
-      </c>
-      <c r="G16" s="21" t="n">
+        <v>25638</v>
+      </c>
+      <c r="G16" s="21">
         <f>Financials!H3</f>
-        <v>28216.0</v>
-      </c>
-      <c r="H16" s="21" t="n">
+        <v>28216</v>
+      </c>
+      <c r="H16" s="21">
         <f>Financials!I3</f>
-        <v>32753.0</v>
-      </c>
-      <c r="I16" s="21" t="n">
+        <v>32753</v>
+      </c>
+      <c r="I16" s="21">
         <f>Financials!J3</f>
-        <v>33266.0</v>
-      </c>
-      <c r="J16" s="21" t="n">
+        <v>33266</v>
+      </c>
+      <c r="J16" s="21">
         <f>Financials!K3</f>
-        <v>45804.0</v>
-      </c>
-      <c r="K16" s="21" t="n">
+        <v>45804</v>
+      </c>
+      <c r="K16" s="21">
         <f>Financials!L3</f>
-        <v>56197.0</v>
-      </c>
-      <c r="L16" s="21" t="n">
+        <v>56197</v>
+      </c>
+      <c r="L16" s="21">
         <f>Financials!M3</f>
-        <v>58054.0</v>
+        <v>58054</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -20305,41 +20296,41 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20" t="n">
+      <c r="D17" s="20">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
-        <v>0.06226716338477914</v>
-      </c>
-      <c r="E17" s="20" t="n">
+        <v>6.2267163384779139E-2</v>
+      </c>
+      <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>0.14524048096192385</v>
       </c>
-      <c r="F17" s="20" t="n">
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
         <v>0.12157137232599852</v>
       </c>
-      <c r="G17" s="20" t="n">
+      <c r="G17" s="20">
         <f t="shared" si="0"/>
         <v>0.10055386535611202</v>
       </c>
-      <c r="H17" s="20" t="n">
+      <c r="H17" s="20">
         <f t="shared" si="0"/>
-        <v>0.1607952934505245</v>
-      </c>
-      <c r="I17" s="20" t="n">
+        <v>0.16079529345052451</v>
+      </c>
+      <c r="I17" s="20">
         <f t="shared" si="0"/>
-        <v>0.015662687387414893</v>
-      </c>
-      <c r="J17" s="20" t="n">
+        <v>1.5662687387414893E-2</v>
+      </c>
+      <c r="J17" s="20">
         <f t="shared" si="0"/>
-        <v>0.3769013407082306</v>
-      </c>
-      <c r="K17" s="20" t="n">
+        <v>0.37690134070823061</v>
+      </c>
+      <c r="K17" s="20">
         <f t="shared" si="0"/>
         <v>0.22690158064797833</v>
       </c>
-      <c r="L17" s="20" t="n">
+      <c r="L17" s="20">
         <f t="shared" si="0"/>
-        <v>0.033044468565937686</v>
+        <v>3.3044468565937686E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -20359,45 +20350,45 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21" t="n">
+      <c r="C19" s="21">
         <f>Financials!D6</f>
-        <v>4128.0</v>
-      </c>
-      <c r="D19" s="21" t="n">
+        <v>4128</v>
+      </c>
+      <c r="D19" s="21">
         <f>Financials!E6</f>
-        <v>1774.0</v>
-      </c>
-      <c r="E19" s="21" t="n">
+        <v>1774</v>
+      </c>
+      <c r="E19" s="21">
         <f>Financials!F6</f>
-        <v>5144.0</v>
-      </c>
-      <c r="F19" s="21" t="n">
+        <v>5144</v>
+      </c>
+      <c r="F19" s="21">
         <f>Financials!G6</f>
-        <v>5953.0</v>
-      </c>
-      <c r="G19" s="21" t="n">
+        <v>5953</v>
+      </c>
+      <c r="G19" s="21">
         <f>Financials!H6</f>
-        <v>5309.0</v>
-      </c>
-      <c r="H19" s="21" t="n">
+        <v>5309</v>
+      </c>
+      <c r="H19" s="21">
         <f>Financials!I6</f>
-        <v>5687.0</v>
-      </c>
-      <c r="I19" s="21" t="n">
+        <v>5687</v>
+      </c>
+      <c r="I19" s="21">
         <f>Financials!J6</f>
-        <v>7882.0</v>
-      </c>
-      <c r="J19" s="21" t="n">
+        <v>7882</v>
+      </c>
+      <c r="J19" s="21">
         <f>Financials!K6</f>
-        <v>4616.0</v>
-      </c>
-      <c r="K19" s="21" t="n">
+        <v>4616</v>
+      </c>
+      <c r="K19" s="21">
         <f>Financials!L6</f>
-        <v>11542.0</v>
-      </c>
-      <c r="L19" s="21" t="n">
+        <v>11542</v>
+      </c>
+      <c r="L19" s="21">
         <f>Financials!M6</f>
-        <v>11836.0</v>
+        <v>11836</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -20405,86 +20396,86 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="20">
         <f>(D19-C19)/C19</f>
-        <v>-0.5702519379844961</v>
-      </c>
-      <c r="E20" s="20" t="n">
+        <v>-0.57025193798449614</v>
+      </c>
+      <c r="E20" s="20">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
         <v>1.8996617812852312</v>
       </c>
-      <c r="F20" s="20" t="n">
+      <c r="F20" s="20">
         <f t="shared" si="1"/>
         <v>0.1572706065318818</v>
       </c>
-      <c r="G20" s="20" t="n">
+      <c r="G20" s="20">
         <f t="shared" si="1"/>
         <v>-0.10818074920208298</v>
       </c>
-      <c r="H20" s="20" t="n">
+      <c r="H20" s="20">
         <f t="shared" si="1"/>
-        <v>0.07119984931248823</v>
-      </c>
-      <c r="I20" s="20" t="n">
+        <v>7.1199849312488225E-2</v>
+      </c>
+      <c r="I20" s="20">
         <f t="shared" si="1"/>
-        <v>0.3859679971865658</v>
-      </c>
-      <c r="J20" s="20" t="n">
+        <v>0.38596799718656583</v>
+      </c>
+      <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>-0.41436183709718344</v>
       </c>
-      <c r="K20" s="20" t="n">
+      <c r="K20" s="20">
         <f t="shared" si="1"/>
         <v>1.5004332755632583</v>
       </c>
-      <c r="L20" s="20" t="n">
+      <c r="L20" s="20">
         <f t="shared" si="1"/>
-        <v>0.025472188528851154</v>
+        <v>2.5472188528851154E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="25">
         <f>Financials!D20</f>
-        <v>5776.0</v>
-      </c>
-      <c r="D22" s="25" t="n">
+        <v>5776</v>
+      </c>
+      <c r="D22" s="25">
         <f>Financials!E20</f>
-        <v>2937.0</v>
-      </c>
-      <c r="E22" s="25" t="n">
+        <v>2937</v>
+      </c>
+      <c r="E22" s="25">
         <f>Financials!F20</f>
-        <v>7003.0</v>
-      </c>
-      <c r="F22" s="25" t="n">
+        <v>7003</v>
+      </c>
+      <c r="F22" s="25">
         <f>Financials!G20</f>
-        <v>6562.0</v>
-      </c>
-      <c r="G22" s="25" t="n">
+        <v>6562</v>
+      </c>
+      <c r="G22" s="25">
         <f>Financials!H20</f>
-        <v>9431.0</v>
-      </c>
-      <c r="H22" s="25" t="n">
+        <v>9431</v>
+      </c>
+      <c r="H22" s="25">
         <f>Financials!I20</f>
-        <v>12789.0</v>
-      </c>
-      <c r="I22" s="25" t="n">
+        <v>12789</v>
+      </c>
+      <c r="I22" s="25">
         <f>Financials!J20</f>
-        <v>12772.0</v>
-      </c>
-      <c r="J22" s="25" t="n">
+        <v>12772</v>
+      </c>
+      <c r="J22" s="25">
         <f>Financials!K20</f>
-        <v>16790.0</v>
-      </c>
-      <c r="K22" s="25" t="n">
+        <v>16790</v>
+      </c>
+      <c r="K22" s="25">
         <f>Financials!L20</f>
-        <v>21990.0</v>
-      </c>
-      <c r="L22" s="25" t="n">
+        <v>21990</v>
+      </c>
+      <c r="L22" s="25">
         <f>Financials!M20</f>
-        <v>24248.0</v>
+        <v>24248</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -20492,39 +20483,39 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26" t="n">
+      <c r="D23" s="26">
         <f>(D22-C22)/C22</f>
         <v>-0.49151662049861494</v>
       </c>
-      <c r="E23" s="26" t="n">
+      <c r="E23" s="26">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
         <v>1.3844058563159687</v>
       </c>
-      <c r="F23" s="26" t="n">
+      <c r="F23" s="26">
         <f t="shared" si="2"/>
-        <v>-0.06297301156647152</v>
-      </c>
-      <c r="G23" s="26" t="n">
+        <v>-6.2973011566471518E-2</v>
+      </c>
+      <c r="G23" s="26">
         <f t="shared" si="2"/>
         <v>0.43721426394391955</v>
       </c>
-      <c r="H23" s="26" t="n">
+      <c r="H23" s="26">
         <f t="shared" si="2"/>
-        <v>0.3560598027780723</v>
-      </c>
-      <c r="I23" s="26" t="n">
+        <v>0.35605980277807231</v>
+      </c>
+      <c r="I23" s="26">
         <f t="shared" si="2"/>
-        <v>-0.0013292673391195559</v>
-      </c>
-      <c r="J23" s="26" t="n">
+        <v>-1.3292673391195559E-3</v>
+      </c>
+      <c r="J23" s="26">
         <f t="shared" si="2"/>
-        <v>0.3145944253053555</v>
-      </c>
-      <c r="K23" s="26" t="n">
+        <v>0.31459442530535547</v>
+      </c>
+      <c r="K23" s="26">
         <f t="shared" si="2"/>
         <v>0.3097081596188207</v>
       </c>
-      <c r="L23" s="26" t="n">
+      <c r="L23" s="26">
         <f t="shared" si="2"/>
         <v>0.10268303774442929</v>
       </c>
@@ -20546,45 +20537,45 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62" t="n">
+      <c r="C25" s="62">
         <f>Financials!D9</f>
-        <v>6561.0</v>
-      </c>
-      <c r="D25" s="62" t="n">
+        <v>6561</v>
+      </c>
+      <c r="D25" s="62">
         <f>Financials!E9</f>
-        <v>4197.0</v>
-      </c>
-      <c r="E25" s="62" t="n">
+        <v>4197</v>
+      </c>
+      <c r="E25" s="62">
         <f>Financials!F9</f>
-        <v>8373.0</v>
-      </c>
-      <c r="F25" s="62" t="n">
+        <v>8373</v>
+      </c>
+      <c r="F25" s="62">
         <f>Financials!G9</f>
-        <v>10529.0</v>
-      </c>
-      <c r="G25" s="62" t="n">
+        <v>10529</v>
+      </c>
+      <c r="G25" s="62">
         <f>Financials!H9</f>
-        <v>11046.0</v>
-      </c>
-      <c r="H25" s="62" t="n">
+        <v>11046</v>
+      </c>
+      <c r="H25" s="62">
         <f>Financials!I9</f>
-        <v>8148.0</v>
-      </c>
-      <c r="I25" s="62" t="n">
+        <v>8148</v>
+      </c>
+      <c r="I25" s="62">
         <f>Financials!J9</f>
-        <v>15000.0</v>
-      </c>
-      <c r="J25" s="62" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J25" s="62">
         <f>Financials!K9</f>
-        <v>17834.0</v>
-      </c>
-      <c r="K25" s="62" t="n">
+        <v>17834</v>
+      </c>
+      <c r="K25" s="62">
         <f>Financials!L9</f>
-        <v>26445.0</v>
-      </c>
-      <c r="L25" s="62" t="n">
+        <v>26445</v>
+      </c>
+      <c r="L25" s="62">
         <f>Financials!M9</f>
-        <v>26584.0</v>
+        <v>26584</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -20592,84 +20583,84 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63" t="n">
+      <c r="D26" s="63">
         <f>Financials!E10</f>
         <v>-0.36031092821216276</v>
       </c>
-      <c r="E26" s="63" t="n">
+      <c r="E26" s="63">
         <f>Financials!F10</f>
-        <v>0.9949964260185847</v>
-      </c>
-      <c r="F26" s="63" t="n">
+        <v>0.99499642601858473</v>
+      </c>
+      <c r="F26" s="63">
         <f>Financials!G10</f>
         <v>0.25749432700346353</v>
       </c>
-      <c r="G26" s="63" t="n">
+      <c r="G26" s="63">
         <f>Financials!H10</f>
-        <v>0.04910247886788869</v>
-      </c>
-      <c r="H26" s="63" t="n">
+        <v>4.9102478867888689E-2</v>
+      </c>
+      <c r="H26" s="63">
         <f>Financials!I10</f>
-        <v>-0.2623574144486692</v>
-      </c>
-      <c r="I26" s="63" t="n">
+        <v>-0.26235741444866922</v>
+      </c>
+      <c r="I26" s="63">
         <f>Financials!J10</f>
-        <v>0.8409425625920471</v>
-      </c>
-      <c r="J26" s="63" t="n">
+        <v>0.84094256259204714</v>
+      </c>
+      <c r="J26" s="63">
         <f>Financials!K10</f>
         <v>0.18893333333333334</v>
       </c>
-      <c r="K26" s="63" t="n">
+      <c r="K26" s="63">
         <f>Financials!L10</f>
         <v>0.48284176292475045</v>
       </c>
-      <c r="L26" s="63" t="n">
+      <c r="L26" s="63">
         <f>Financials!M10</f>
-        <v>0.005256192096804689</v>
+        <v>5.2561920968046891E-3</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" thickBot="1">
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24" t="n">
+      <c r="C28" s="24">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
         <v>0.21969132517296433</v>
       </c>
-      <c r="D28" s="24" t="n">
+      <c r="D28" s="24">
         <f t="shared" si="3"/>
-        <v>0.08887775551102205</v>
-      </c>
-      <c r="E28" s="24" t="n">
+        <v>8.8877755511022047E-2</v>
+      </c>
+      <c r="E28" s="24">
         <f t="shared" si="3"/>
         <v>0.22503171617306095</v>
       </c>
-      <c r="F28" s="24" t="n">
+      <c r="F28" s="24">
         <f t="shared" si="3"/>
         <v>0.23219439893907481</v>
       </c>
-      <c r="G28" s="24" t="n">
+      <c r="G28" s="24">
         <f t="shared" si="3"/>
-        <v>0.1881556563651829</v>
-      </c>
-      <c r="H28" s="24" t="n">
+        <v>0.18815565636518289</v>
+      </c>
+      <c r="H28" s="24">
         <f t="shared" si="3"/>
         <v>0.17363294965346684</v>
       </c>
-      <c r="I28" s="24" t="n">
+      <c r="I28" s="24">
         <f t="shared" si="3"/>
         <v>0.23693861600432875</v>
       </c>
-      <c r="J28" s="24" t="n">
+      <c r="J28" s="24">
         <f t="shared" si="3"/>
         <v>0.10077722469653305</v>
       </c>
-      <c r="K28" s="24" t="n">
+      <c r="K28" s="24">
         <f t="shared" si="3"/>
-        <v>0.2053846290727263</v>
-      </c>
-      <c r="L28" s="24" t="n">
+        <v>0.20538462907272631</v>
+      </c>
+      <c r="L28" s="24">
         <f t="shared" si="3"/>
         <v>0.20387914700106796</v>
       </c>
@@ -20678,43 +20669,43 @@
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24" t="n">
+      <c r="C29" s="24">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
         <v>1.3992248062015504</v>
       </c>
-      <c r="D29" s="24" t="n">
+      <c r="D29" s="24">
         <f t="shared" si="4"/>
         <v>1.6555806087936866</v>
       </c>
-      <c r="E29" s="24" t="n">
+      <c r="E29" s="24">
         <f t="shared" si="4"/>
         <v>1.3613919129082426</v>
       </c>
-      <c r="F29" s="24" t="n">
+      <c r="F29" s="24">
         <f t="shared" si="4"/>
         <v>1.1023013606584915</v>
       </c>
-      <c r="G29" s="24" t="n">
+      <c r="G29" s="24">
         <f t="shared" si="4"/>
         <v>1.7764174044076098</v>
       </c>
-      <c r="H29" s="24" t="n">
+      <c r="H29" s="24">
         <f t="shared" si="4"/>
         <v>2.2488130824687884</v>
       </c>
-      <c r="I29" s="24" t="n">
+      <c r="I29" s="24">
         <f t="shared" si="4"/>
         <v>1.6204009134737376</v>
       </c>
-      <c r="J29" s="24" t="n">
+      <c r="J29" s="24">
         <f t="shared" si="4"/>
         <v>3.6373483535528597</v>
       </c>
-      <c r="K29" s="24" t="n">
+      <c r="K29" s="24">
         <f t="shared" si="4"/>
         <v>1.9052157338416218</v>
       </c>
-      <c r="L29" s="24" t="n">
+      <c r="L29" s="24">
         <f t="shared" si="4"/>
         <v>2.0486650895572827</v>
       </c>
@@ -20763,43 +20754,43 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21" t="n">
+      <c r="C36" s="21">
         <f>L16*(C37+1)</f>
-        <v>52660.78337024152</v>
-      </c>
-      <c r="D36" s="21" t="n">
+        <v>52660.783370241523</v>
+      </c>
+      <c r="D36" s="21">
         <f>C36*(D37+1)</f>
-        <v>52471.20454110411</v>
-      </c>
-      <c r="E36" s="21" t="n">
+        <v>52471.204541104111</v>
+      </c>
+      <c r="E36" s="21">
         <f>D36*(E37+1)</f>
-        <v>55446.32196462421</v>
-      </c>
-      <c r="F36" s="21" t="n">
+        <v>55446.321964624207</v>
+      </c>
+      <c r="F36" s="21">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
-        <v>56000.78517187708</v>
-      </c>
-      <c r="G36" s="21" t="n">
+        <v>56000.785171877083</v>
+      </c>
+      <c r="G36" s="21">
         <f t="shared" si="5"/>
         <v>56560.793011078575</v>
       </c>
-      <c r="H36" s="21" t="n">
+      <c r="H36" s="21">
         <f t="shared" si="5"/>
         <v>57126.400928546915</v>
       </c>
-      <c r="I36" s="21" t="n">
+      <c r="I36" s="21">
         <f t="shared" si="5"/>
-        <v>57697.66492506347</v>
-      </c>
-      <c r="J36" s="21" t="n">
+        <v>57697.664925063473</v>
+      </c>
+      <c r="J36" s="21">
         <f t="shared" si="5"/>
-        <v>58274.64156141755</v>
-      </c>
-      <c r="K36" s="21" t="n">
+        <v>58274.641561417549</v>
+      </c>
+      <c r="K36" s="21">
         <f t="shared" si="5"/>
-        <v>58857.38796400613</v>
-      </c>
-      <c r="L36" s="21" t="n">
+        <v>58857.387964006128</v>
+      </c>
+      <c r="L36" s="21">
         <f t="shared" si="5"/>
         <v>59445.961830490356</v>
       </c>
@@ -20808,42 +20799,42 @@
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68" t="n">
-        <v>-0.09290000051259995</v>
-      </c>
-      <c r="D37" s="68" t="n">
-        <v>-0.0036000001709908247</v>
-      </c>
-      <c r="E37" s="68" t="n">
-        <v>0.056700002402067184</v>
-      </c>
-      <c r="F37" s="27" t="n">
+      <c r="C37" s="68">
+        <v>-9.2900000512599945E-2</v>
+      </c>
+      <c r="D37" s="68">
+        <v>-3.6000001709908247E-3</v>
+      </c>
+      <c r="E37" s="68">
+        <v>5.6700002402067184E-2</v>
+      </c>
+      <c r="F37" s="27">
         <f>C6</f>
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="G37" s="27" t="n">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="G37" s="27">
         <f>C6</f>
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="H37" s="27" t="n">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="H37" s="27">
         <f>C6</f>
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="I37" s="27" t="n">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="I37" s="27">
         <f>C6</f>
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="J37" s="27" t="n">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="J37" s="27">
         <f>C6</f>
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="K37" s="27" t="n">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="K37" s="27">
         <f>C6</f>
-        <v>0.009999999776482582</v>
-      </c>
-      <c r="L37" s="27" t="n">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="L37" s="27">
         <f>C6</f>
-        <v>0.009999999776482582</v>
+        <v>9.9999997764825821E-3</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20863,88 +20854,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21" t="n">
+      <c r="C39" s="21">
         <f>C36*C7</f>
-        <v>9871.597810011732</v>
-      </c>
-      <c r="D39" s="21" t="n">
+        <v>9871.5978100117318</v>
+      </c>
+      <c r="D39" s="21">
         <f>D36*C7</f>
-        <v>9836.060056207732</v>
-      </c>
-      <c r="E39" s="21" t="n">
+        <v>9836.0600562077325</v>
+      </c>
+      <c r="E39" s="21">
         <f>E36*C7</f>
         <v>10393.764685021613</v>
       </c>
-      <c r="F39" s="21" t="n">
+      <c r="F39" s="21">
         <f>F36*C7</f>
         <v>10497.70232954862</v>
       </c>
-      <c r="G39" s="21" t="n">
+      <c r="G39" s="21">
         <f>G36*C7</f>
         <v>10602.679350497665</v>
       </c>
-      <c r="H39" s="21" t="n">
+      <c r="H39" s="21">
         <f>H36*C7</f>
         <v>10708.706141632727</v>
       </c>
-      <c r="I39" s="21" t="n">
+      <c r="I39" s="21">
         <f>I36*C7</f>
         <v>10815.793200655447</v>
       </c>
-      <c r="J39" s="21" t="n">
+      <c r="J39" s="21">
         <f>J36*C7</f>
         <v>10923.951130244446</v>
       </c>
-      <c r="K39" s="21" t="n">
+      <c r="K39" s="21">
         <f>K36*C7</f>
         <v>11033.190639105165</v>
       </c>
-      <c r="L39" s="21" t="n">
+      <c r="L39" s="21">
         <f>L36*C7</f>
         <v>11143.522543030085</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20" t="n">
+      <c r="C40" s="20">
         <f>(C39-L19)/L19</f>
         <v>-0.16596841753871833</v>
       </c>
-      <c r="D40" s="20" t="n">
+      <c r="D40" s="20">
         <f>(D39-C39)/C39</f>
-        <v>-0.0036000001709912727</v>
-      </c>
-      <c r="E40" s="20" t="n">
+        <v>-3.6000001709912727E-3</v>
+      </c>
+      <c r="E40" s="20">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>0.05670000240206979</v>
-      </c>
-      <c r="F40" s="20" t="n">
+        <v>5.6700002402069787E-2</v>
+      </c>
+      <c r="F40" s="20">
         <f t="shared" si="6"/>
-        <v>0.009999999776480412</v>
-      </c>
-      <c r="G40" s="20" t="n">
+        <v>9.999999776480412E-3</v>
+      </c>
+      <c r="G40" s="20">
         <f t="shared" si="6"/>
-        <v>0.009999999776480516</v>
-      </c>
-      <c r="H40" s="20" t="n">
+        <v>9.999999776480516E-3</v>
+      </c>
+      <c r="H40" s="20">
         <f t="shared" si="6"/>
-        <v>0.009999999776479612</v>
-      </c>
-      <c r="I40" s="20" t="n">
+        <v>9.9999997764796122E-3</v>
+      </c>
+      <c r="I40" s="20">
         <f t="shared" si="6"/>
-        <v>0.00999999977648028</v>
-      </c>
-      <c r="J40" s="20" t="n">
+        <v>9.9999997764802801E-3</v>
+      </c>
+      <c r="J40" s="20">
         <f t="shared" si="6"/>
-        <v>0.009999999776479177</v>
-      </c>
-      <c r="K40" s="20" t="n">
+        <v>9.9999997764791768E-3</v>
+      </c>
+      <c r="K40" s="20">
         <f t="shared" si="6"/>
-        <v>0.009999999776479685</v>
-      </c>
-      <c r="L40" s="20" t="n">
+        <v>9.9999997764796851E-3</v>
+      </c>
+      <c r="L40" s="20">
         <f t="shared" si="6"/>
-        <v>0.009999999776480613</v>
+        <v>9.9999997764806132E-3</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20964,43 +20955,43 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21" t="n">
+      <c r="C42" s="21">
         <f>C39*C8</f>
-        <v>15259.42104316532</v>
-      </c>
-      <c r="D42" s="21" t="n">
+        <v>15259.421043165319</v>
+      </c>
+      <c r="D42" s="21">
         <f>D39*C8</f>
         <v>15204.487124800695</v>
       </c>
-      <c r="E42" s="21" t="n">
+      <c r="E42" s="21">
         <f>E39*C8</f>
         <v>16066.581581299117</v>
       </c>
-      <c r="F42" s="21" t="n">
+      <c r="F42" s="21">
         <f>F39*C8</f>
         <v>16227.247393520904</v>
       </c>
-      <c r="G42" s="21" t="n">
+      <c r="G42" s="21">
         <f>G39*C8</f>
-        <v>16389.51986382909</v>
-      </c>
-      <c r="H42" s="21" t="n">
+        <v>16389.519863829089</v>
+      </c>
+      <c r="H42" s="21">
         <f>H39*C8</f>
         <v>16553.415058803894</v>
       </c>
-      <c r="I42" s="21" t="n">
+      <c r="I42" s="21">
         <f>I39*C8</f>
         <v>16718.949205691886</v>
       </c>
-      <c r="J42" s="21" t="n">
+      <c r="J42" s="21">
         <f>J39*C8</f>
         <v>16886.138694011774</v>
       </c>
-      <c r="K42" s="21" t="n">
+      <c r="K42" s="21">
         <f>K39*C8</f>
-        <v>17055.00007717762</v>
-      </c>
-      <c r="L42" s="21" t="n">
+        <v>17055.000077177621</v>
+      </c>
+      <c r="L42" s="21">
         <f>L39*C8</f>
         <v>17225.550074137245</v>
       </c>
@@ -21009,132 +21000,132 @@
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20" t="n">
+      <c r="C43" s="20">
         <f>(C42-L22)/L22</f>
-        <v>-0.3706936224362702</v>
-      </c>
-      <c r="D43" s="20" t="n">
+        <v>-0.37069362243627019</v>
+      </c>
+      <c r="D43" s="20">
         <f>(D42-C42)/C42</f>
-        <v>-0.003600000170991364</v>
-      </c>
-      <c r="E43" s="20" t="n">
+        <v>-3.6000001709913642E-3</v>
+      </c>
+      <c r="E43" s="20">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>0.056700002402068676</v>
-      </c>
-      <c r="F43" s="20" t="n">
+        <v>5.6700002402068676E-2</v>
+      </c>
+      <c r="F43" s="20">
         <f t="shared" si="7"/>
-        <v>0.009999999776479895</v>
-      </c>
-      <c r="G43" s="20" t="n">
+        <v>9.999999776479895E-3</v>
+      </c>
+      <c r="G43" s="20">
         <f t="shared" si="7"/>
-        <v>0.009999999776485628</v>
-      </c>
-      <c r="H43" s="20" t="n">
+        <v>9.9999997764856283E-3</v>
+      </c>
+      <c r="H43" s="20">
         <f t="shared" si="7"/>
-        <v>0.009999999776473806</v>
-      </c>
-      <c r="I43" s="20" t="n">
+        <v>9.9999997764738061E-3</v>
+      </c>
+      <c r="I43" s="20">
         <f t="shared" si="7"/>
-        <v>0.009999999776478329</v>
-      </c>
-      <c r="J43" s="20" t="n">
+        <v>9.9999997764783286E-3</v>
+      </c>
+      <c r="J43" s="20">
         <f t="shared" si="7"/>
-        <v>0.009999999776479253</v>
-      </c>
-      <c r="K43" s="20" t="n">
+        <v>9.9999997764792532E-3</v>
+      </c>
+      <c r="K43" s="20">
         <f t="shared" si="7"/>
-        <v>0.00999999977648709</v>
-      </c>
-      <c r="L43" s="20" t="n">
+        <v>9.9999997764870906E-3</v>
+      </c>
+      <c r="L43" s="20">
         <f t="shared" si="7"/>
-        <v>0.009999999776478922</v>
+        <v>9.9999997764789218E-3</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="60" t="n">
-        <v>25762.0</v>
-      </c>
-      <c r="D45" s="60" t="n">
-        <v>25893.0</v>
-      </c>
-      <c r="E45" s="60" t="n">
-        <v>28196.0</v>
-      </c>
-      <c r="F45" s="21" t="n">
-        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
-        <v>30451.679949581605</v>
-      </c>
-      <c r="G45" s="21" t="n">
+      <c r="C45" s="60">
+        <v>25762</v>
+      </c>
+      <c r="D45" s="60">
+        <v>25893</v>
+      </c>
+      <c r="E45" s="60">
+        <v>28196</v>
+      </c>
+      <c r="F45" s="21">
+        <f t="shared" ref="F45:L45" si="8">E45*(1+F46)</f>
+        <v>28759.920000000002</v>
+      </c>
+      <c r="G45" s="21">
         <f t="shared" si="8"/>
-        <v>32887.81429109626</v>
-      </c>
-      <c r="H45" s="21" t="n">
+        <v>29335.118400000003</v>
+      </c>
+      <c r="H45" s="21">
         <f t="shared" si="8"/>
-        <v>35518.83937557599</v>
-      </c>
-      <c r="I45" s="21" t="n">
+        <v>29921.820768000005</v>
+      </c>
+      <c r="I45" s="21">
         <f t="shared" si="8"/>
-        <v>38360.346462109424</v>
-      </c>
-      <c r="J45" s="21" t="n">
+        <v>30520.257183360005</v>
+      </c>
+      <c r="J45" s="21">
         <f t="shared" si="8"/>
-        <v>41429.174110484484</v>
-      </c>
-      <c r="K45" s="21" t="n">
+        <v>31130.662327027207</v>
+      </c>
+      <c r="K45" s="21">
         <f t="shared" si="8"/>
-        <v>44743.5079652421</v>
-      </c>
-      <c r="L45" s="21" t="n">
+        <v>31753.275573567753</v>
+      </c>
+      <c r="L45" s="21">
         <f t="shared" si="8"/>
-        <v>48322.98852245381</v>
+        <v>32388.341085039108</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20" t="n">
+      <c r="C46" s="20">
         <f>C10</f>
-        <v>0.07999999821186066</v>
-      </c>
-      <c r="D46" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D46" s="20">
         <f>C10</f>
-        <v>0.07999999821186066</v>
-      </c>
-      <c r="E46" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E46" s="20">
         <f>C10</f>
-        <v>0.07999999821186066</v>
-      </c>
-      <c r="F46" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F46" s="20">
         <f>C10</f>
-        <v>0.07999999821186066</v>
-      </c>
-      <c r="G46" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G46" s="20">
         <f>C10</f>
-        <v>0.07999999821186066</v>
-      </c>
-      <c r="H46" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H46" s="20">
         <f>C10</f>
-        <v>0.07999999821186066</v>
-      </c>
-      <c r="I46" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I46" s="20">
         <f>C10</f>
-        <v>0.07999999821186066</v>
-      </c>
-      <c r="J46" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J46" s="20">
         <f>C10</f>
-        <v>0.07999999821186066</v>
-      </c>
-      <c r="K46" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K46" s="20">
         <f>C10</f>
-        <v>0.07999999821186066</v>
-      </c>
-      <c r="L46" s="20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L46" s="20">
         <f>C10</f>
-        <v>0.07999999821186066</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21184,43 +21175,43 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61" t="n">
+      <c r="C51" s="61">
         <f>POWER((1+C4),1)</f>
         <v>1.0619056966948959</v>
       </c>
-      <c r="D51" s="61" t="n">
+      <c r="D51" s="61">
         <f>POWER((1+C4),2)</f>
         <v>1.1276437086730722</v>
       </c>
-      <c r="E51" s="61" t="n">
+      <c r="E51" s="61">
         <f>POWER((1+C4),3)</f>
-        <v>1.197451278082095</v>
-      </c>
-      <c r="F51" s="61" t="n">
+        <v>1.1974512780820949</v>
+      </c>
+      <c r="F51" s="61">
         <f>POWER((1+C4),4)</f>
         <v>1.2715803337099605</v>
       </c>
-      <c r="G51" s="61" t="n">
+      <c r="G51" s="61">
         <f>POWER((1+C4),5)</f>
         <v>1.3502984001718037</v>
       </c>
-      <c r="H51" s="61" t="n">
+      <c r="H51" s="61">
         <f>POWER((1+C4),6)</f>
         <v>1.4338895633804427</v>
       </c>
-      <c r="I51" s="61" t="n">
+      <c r="I51" s="61">
         <f>POWER((1+C4),7)</f>
         <v>1.5226554957850489</v>
       </c>
-      <c r="J51" s="61" t="n">
+      <c r="J51" s="61">
         <f>POWER((1+C4),8)</f>
         <v>1.6169165450779346</v>
       </c>
-      <c r="K51" s="61" t="n">
+      <c r="K51" s="61">
         <f>POWER((1+C4),9)</f>
         <v>1.717012890298488</v>
       </c>
-      <c r="L51" s="61" t="n">
+      <c r="L51" s="61">
         <f>POWER((1+C4),10)</f>
         <v>1.8233057695065327</v>
       </c>
@@ -21242,45 +21233,45 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21" t="n">
+      <c r="C53" s="21">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
         <v>14369.845731743484</v>
       </c>
-      <c r="D53" s="21" t="n">
+      <c r="D53" s="21">
         <f t="shared" si="9"/>
         <v>13483.414138577731</v>
       </c>
-      <c r="E53" s="21" t="n">
+      <c r="E53" s="21">
         <f t="shared" si="9"/>
         <v>13417.315489472192</v>
       </c>
-      <c r="F53" s="21" t="n">
+      <c r="F53" s="21">
         <f t="shared" si="9"/>
         <v>12761.480311807212</v>
       </c>
-      <c r="G53" s="21" t="n">
+      <c r="G53" s="21">
         <f t="shared" si="9"/>
-        <v>12137.70220104226</v>
-      </c>
-      <c r="H53" s="21" t="n">
+        <v>12137.702201042261</v>
+      </c>
+      <c r="H53" s="21">
         <f t="shared" si="9"/>
         <v>11544.414215400731</v>
       </c>
-      <c r="I53" s="21" t="n">
+      <c r="I53" s="21">
         <f t="shared" si="9"/>
         <v>10980.126004846521</v>
       </c>
-      <c r="J53" s="21" t="n">
+      <c r="J53" s="21">
         <f t="shared" si="9"/>
         <v>10443.420067297255</v>
       </c>
-      <c r="K53" s="21" t="n">
+      <c r="K53" s="21">
         <f t="shared" si="9"/>
-        <v>9932.948187833765</v>
-      </c>
-      <c r="L53" s="21" t="n">
+        <v>9932.9481878337647</v>
+      </c>
+      <c r="L53" s="21">
         <f t="shared" si="9"/>
-        <v>9447.428051960382</v>
+        <v>9447.4280519603817</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21300,7 +21291,7 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74" t="n">
+      <c r="C55" s="74">
         <f>POWER((1+C4),11)</f>
         <v>1.9361787834556579</v>
       </c>
@@ -21359,7 +21350,7 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25" t="n">
+      <c r="C59" s="25">
         <f>L53*(1+C5)/(C4-C5)</f>
         <v>262388.0490135462</v>
       </c>
@@ -21368,7 +21359,7 @@
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23" t="n">
+      <c r="C60" s="23">
         <f>C59/C55</f>
         <v>135518.50234885857</v>
       </c>
@@ -21378,7 +21369,7 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71" t="n">
+      <c r="C62" s="71">
         <f>(SUM(C53:L53)+C59)</f>
         <v>380906.14341352775</v>
       </c>
@@ -21390,7 +21381,7 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70" t="n">
+      <c r="C64" s="70">
         <f>C62/(C11/1000000)</f>
         <v>215.27419305475095</v>
       </c>
@@ -21429,18 +21420,18 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25" t="n">
+      <c r="C69" s="25">
         <f>L45*C9</f>
-        <v>538318.1087305191</v>
+        <v>360806.13080699014</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23" t="n">
+      <c r="C70" s="23">
         <f>C69/C55</f>
-        <v>278031.1990454403</v>
+        <v>186349.59430917309</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21451,9 +21442,9 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72" t="n">
+      <c r="C72" s="72">
         <f>SUM(C53:L53)+C70</f>
-        <v>396549.29344542185</v>
+        <v>304867.68870915461</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21461,9 +21452,9 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70" t="n">
+      <c r="C74" s="70">
         <f>C72/(C11/1000000)</f>
-        <v>224.11512817270838</v>
+        <v>172.3000450640655</v>
       </c>
     </row>
   </sheetData>
@@ -21481,13 +21472,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B13:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="29.90625"/>
+    <col min="2" max="2" width="29.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21501,7 +21492,7 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78" t="n">
+      <c r="C15" s="78">
         <v>10.970000267028809</v>
       </c>
     </row>
@@ -21509,7 +21500,7 @@
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>7</v>
       </c>
     </row>
@@ -21517,15 +21508,15 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78" t="n">
-        <v>0.0</v>
+      <c r="C17" s="78">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21539,9 +21530,9 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79" t="n">
+      <c r="C20" s="79">
         <f>(C15*(C16+C17)*4.4)/C18</f>
-        <v>76.44253579739525</v>
+        <v>76.442535797395252</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" thickTop="1"/>
@@ -21560,23 +21551,23 @@
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117" t="n">
-        <v>5.710000038146973</v>
+      <c r="C2" s="117">
+        <v>5.7100000381469727</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1"/>
@@ -21652,122 +21643,122 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106" t="n">
+      <c r="P6" s="106">
         <f>C2</f>
-        <v>5.710000038146973</v>
+        <v>5.7100000381469727</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90" t="n">
+      <c r="C7" s="90">
         <f>P6*(1+P7)</f>
-        <v>5.867025038345164</v>
-      </c>
-      <c r="D7" s="90" t="n">
+        <v>5.824200038909912</v>
+      </c>
+      <c r="D7" s="90">
         <f>C7*(1+P7)</f>
-        <v>6.028368226025407</v>
-      </c>
-      <c r="E7" s="90" t="n">
+        <v>5.9406840396881107</v>
+      </c>
+      <c r="E7" s="90">
         <f>D7*(1+P7)</f>
-        <v>6.194148351342822</v>
-      </c>
-      <c r="F7" s="90" t="n">
+        <v>6.0594977204818727</v>
+      </c>
+      <c r="F7" s="90">
         <f>E7*(1+P7)</f>
-        <v>6.364487430081757</v>
-      </c>
-      <c r="G7" s="90" t="n">
+        <v>6.1806876748915105</v>
+      </c>
+      <c r="G7" s="90">
         <f>F7*(1+P7)</f>
-        <v>6.539510833460636</v>
-      </c>
-      <c r="H7" s="90" t="n">
+        <v>6.3043014283893406</v>
+      </c>
+      <c r="H7" s="90">
         <f>G7*(1+P7)</f>
-        <v>6.719347380406355</v>
-      </c>
-      <c r="I7" s="90" t="n">
+        <v>6.4303874569571278</v>
+      </c>
+      <c r="I7" s="90">
         <f>H7*(1+P7)</f>
-        <v>6.904129432366285</v>
-      </c>
-      <c r="J7" s="90" t="n">
+        <v>6.5589952060962702</v>
+      </c>
+      <c r="J7" s="90">
         <f>I7*(1+P7)</f>
-        <v>7.093992990727578</v>
-      </c>
-      <c r="K7" s="90" t="n">
+        <v>6.6901751102181954</v>
+      </c>
+      <c r="K7" s="90">
         <f>J7*(1+P7)</f>
-        <v>7.289077796915513</v>
-      </c>
-      <c r="L7" s="90" t="n">
+        <v>6.8239786124225592</v>
+      </c>
+      <c r="L7" s="90">
         <f>K7*(1+P7)</f>
-        <v>7.489527435244541</v>
-      </c>
-      <c r="M7" s="159" t="n">
+        <v>6.9604581846710101</v>
+      </c>
+      <c r="M7" s="159">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>223.66904741127126</v>
+        <v>169.42010056664179</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104" t="n">
-        <v>0.027499999850988388</v>
+      <c r="P7" s="104">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90" t="n">
+      <c r="C8" s="90">
         <f>C7/(1+P8)</f>
-        <v>5.524996293555845</v>
-      </c>
-      <c r="D8" s="90" t="n">
+        <v>5.4846678542523222</v>
+      </c>
+      <c r="D8" s="90">
         <f>D7/(1+P8)^2</f>
-        <v>5.34598666197425</v>
-      </c>
-      <c r="E8" s="90" t="n">
+        <v>5.2682278932577642</v>
+      </c>
+      <c r="E8" s="90">
         <f>E7/(1+P8)^3</f>
-        <v>5.172776934410009</v>
-      </c>
-      <c r="F8" s="90" t="n">
+        <v>5.0603292437810943</v>
+      </c>
+      <c r="F8" s="90">
         <f>F7/(1+P8)^4</f>
-        <v>5.00517919423364</v>
-      </c>
-      <c r="G8" s="90" t="n">
+        <v>4.8606348423608816</v>
+      </c>
+      <c r="G8" s="90">
         <f>G7/(1+P8)^5</f>
-        <v>4.843011613306074</v>
-      </c>
-      <c r="H8" s="90" t="n">
+        <v>4.6688209269797101</v>
+      </c>
+      <c r="H8" s="90">
         <f>H7/(1+P8)^6</f>
-        <v>4.686098254711671</v>
-      </c>
-      <c r="I8" s="90" t="n">
+        <v>4.4845765121529126</v>
+      </c>
+      <c r="I8" s="90">
         <f>I7/(1+P8)^7</f>
-        <v>4.534268881883004</v>
-      </c>
-      <c r="J8" s="90" t="n">
+        <v>4.3076028847317112</v>
+      </c>
+      <c r="J8" s="90">
         <f>J7/(1+P8)^8</f>
-        <v>4.387358773909802</v>
-      </c>
-      <c r="K8" s="90" t="n">
+        <v>4.1376131196033583</v>
+      </c>
+      <c r="K8" s="90">
         <f>K7/(1+P8)^9</f>
-        <v>4.245208546831793</v>
-      </c>
-      <c r="L8" s="90" t="n">
+        <v>3.9743316145030629</v>
+      </c>
+      <c r="L8" s="90">
         <f>L7/(1+P8)^10</f>
-        <v>4.107663980721977</v>
-      </c>
-      <c r="M8" s="159" t="n">
+        <v>3.817493643183512</v>
+      </c>
+      <c r="M8" s="159">
         <f>M7/POWER((1+P8),10)</f>
-        <v>122.67226438481906</v>
+        <v>92.91919292971599</v>
       </c>
       <c r="N8" s="160"/>
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105" t="n">
+      <c r="P8" s="105">
         <f>WACC!$C$25</f>
-        <v>0.061905696694895776</v>
+        <v>6.1905696694895776E-2</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -21778,9 +21769,9 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95" t="n">
+      <c r="C10" s="95">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>170.524813520357</v>
+        <v>138.98349146452233</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21873,122 +21864,122 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106" t="n">
+      <c r="P15" s="106">
         <f>C2</f>
-        <v>5.710000038146973</v>
+        <v>5.7100000381469727</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1">
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90" t="n">
+      <c r="C16" s="90">
         <f>P15*(1+P16)</f>
-        <v>5.895575032579913</v>
-      </c>
-      <c r="D16" s="90" t="n">
+        <v>5.8384750390052798</v>
+      </c>
+      <c r="D16" s="90">
         <f>C16*(1+P16)</f>
-        <v>6.087181214110701</v>
-      </c>
-      <c r="E16" s="90" t="n">
+        <v>5.9698407273828984</v>
+      </c>
+      <c r="E16" s="90">
         <f>D16*(1+P16)</f>
-        <v>6.28501459631283</v>
-      </c>
-      <c r="F16" s="90" t="n">
+        <v>6.1041621437490132</v>
+      </c>
+      <c r="F16" s="90">
         <f>E16*(1+P16)</f>
-        <v>6.489277563200694</v>
-      </c>
-      <c r="G16" s="90" t="n">
+        <v>6.2415057919833661</v>
+      </c>
+      <c r="G16" s="90">
         <f>F16*(1+P16)</f>
-        <v>6.70017907626891</v>
-      </c>
-      <c r="H16" s="90" t="n">
+        <v>6.381939672302992</v>
+      </c>
+      <c r="H16" s="90">
         <f>G16*(1+P16)</f>
-        <v>6.917934888260433</v>
-      </c>
-      <c r="I16" s="90" t="n">
+        <v>6.5255333149298087</v>
+      </c>
+      <c r="I16" s="90">
         <f>H16*(1+P16)</f>
-        <v>7.142767763882093</v>
-      </c>
-      <c r="J16" s="90" t="n">
+        <v>6.6723578145157294</v>
+      </c>
+      <c r="J16" s="90">
         <f>I16*(1+P16)</f>
-        <v>7.374907707693436</v>
-      </c>
-      <c r="K16" s="90" t="n">
+        <v>6.8224858653423333</v>
+      </c>
+      <c r="K16" s="90">
         <f>J16*(1+P16)</f>
-        <v>7.6145921994019234</v>
-      </c>
-      <c r="L16" s="90" t="n">
+        <v>6.9759917973125356</v>
+      </c>
+      <c r="L16" s="90">
         <f>K16*(1+P16)</f>
-        <v>7.862066436805203</v>
-      </c>
-      <c r="M16" s="159" t="n">
+        <v>7.1329516127520671</v>
+      </c>
+      <c r="M16" s="159">
         <f>L16*(1+P16)/(P17-P16)</f>
-        <v>276.05478427433997</v>
+        <v>185.08600623177685</v>
       </c>
       <c r="N16" s="160"/>
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104" t="n">
-        <v>0.032499998807907104</v>
+      <c r="P16" s="104">
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90" t="n">
+      <c r="C17" s="90">
         <f>C16/(1+P17)</f>
-        <v>5.551881914683606</v>
-      </c>
-      <c r="D17" s="90" t="n">
+        <v>5.4981106676205878</v>
+      </c>
+      <c r="D17" s="90">
         <f>D16/(1+P17)^2</f>
-        <v>5.398142309749288</v>
-      </c>
-      <c r="E17" s="90" t="n">
+        <v>5.2940841876444873</v>
+      </c>
+      <c r="E17" s="90">
         <f>E16/(1+P17)^3</f>
-        <v>5.248659975860803</v>
-      </c>
-      <c r="F17" s="90" t="n">
+        <v>5.0976288183731207</v>
+      </c>
+      <c r="F17" s="90">
         <f>F16/(1+P17)^4</f>
-        <v>5.1033170230524</v>
-      </c>
-      <c r="G17" s="90" t="n">
+        <v>4.9084636074648627</v>
+      </c>
+      <c r="G17" s="90">
         <f>G16/(1+P17)^5</f>
-        <v>4.9619988259013255</v>
-      </c>
-      <c r="H17" s="90" t="n">
+        <v>4.7263180282898896</v>
+      </c>
+      <c r="H17" s="90">
         <f>H16/(1+P17)^6</f>
-        <v>4.824593933127723</v>
-      </c>
-      <c r="I17" s="90" t="n">
+        <v>4.5509315930479657</v>
+      </c>
+      <c r="I17" s="90">
         <f>I16/(1+P17)^7</f>
-        <v>4.690993979698228</v>
-      </c>
-      <c r="J17" s="90" t="n">
+        <v>4.3820534802428197</v>
+      </c>
+      <c r="J17" s="90">
         <f>J16/(1+P17)^8</f>
-        <v>4.561093601363324</v>
-      </c>
-      <c r="K17" s="90" t="n">
+        <v>4.2194421759803893</v>
+      </c>
+      <c r="K17" s="90">
         <f>K16/(1+P17)^9</f>
-        <v>4.434790351561181</v>
-      </c>
-      <c r="L17" s="90" t="n">
+        <v>4.0628651285779336</v>
+      </c>
+      <c r="L17" s="90">
         <f>L16/(1+P17)^10</f>
-        <v>4.311984620622923</v>
-      </c>
-      <c r="M17" s="159" t="n">
+        <v>3.9120984159900729</v>
+      </c>
+      <c r="M17" s="159">
         <f>M16/POWER((1+P17),10)</f>
-        <v>151.4034502008147</v>
+        <v>101.51122720456773</v>
       </c>
       <c r="N17" s="160"/>
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105" t="n">
+      <c r="P17" s="105">
         <f>WACC!$C$25</f>
-        <v>0.061905696694895776</v>
+        <v>6.1905696694895776E-2</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -21999,9 +21990,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95" t="n">
+      <c r="C19" s="95">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>200.490906736435</v>
+        <v>148.16322330779985</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22088,122 +22079,122 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106" t="n">
+      <c r="P24" s="106">
         <f>C2</f>
-        <v>5.710000038146973</v>
+        <v>5.7100000381469727</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1">
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90" t="n">
+      <c r="C25" s="90">
         <f>P24*(1+P25)</f>
-        <v>5.9098500403329615</v>
-      </c>
-      <c r="D25" s="90" t="n">
+        <v>5.8670250391960153</v>
+      </c>
+      <c r="D25" s="90">
         <f>C25*(1+P25)</f>
-        <v>6.11669479262524</v>
-      </c>
-      <c r="E25" s="90" t="n">
+        <v>6.0283682277739059</v>
+      </c>
+      <c r="E25" s="90">
         <f>D25*(1+P25)</f>
-        <v>6.330779111278572</v>
-      </c>
-      <c r="F25" s="90" t="n">
+        <v>6.1941483540376892</v>
+      </c>
+      <c r="F25" s="90">
         <f>E25*(1+P25)</f>
-        <v>6.552356381116669</v>
-      </c>
-      <c r="G25" s="90" t="n">
+        <v>6.3644874337737258</v>
+      </c>
+      <c r="G25" s="90">
         <f>F25*(1+P25)</f>
-        <v>6.78168885543212</v>
-      </c>
-      <c r="H25" s="90" t="n">
+        <v>6.5395108382025038</v>
+      </c>
+      <c r="H25" s="90">
         <f>G25*(1+P25)</f>
-        <v>7.019047966382784</v>
-      </c>
-      <c r="I25" s="90" t="n">
+        <v>6.719347386253073</v>
+      </c>
+      <c r="I25" s="90">
         <f>H25*(1+P25)</f>
-        <v>7.264714646252085</v>
-      </c>
-      <c r="J25" s="90" t="n">
+        <v>6.9041294393750334</v>
+      </c>
+      <c r="J25" s="90">
         <f>I25*(1+P25)</f>
-        <v>7.518979659953429</v>
-      </c>
-      <c r="K25" s="90" t="n">
+        <v>7.0939929989578472</v>
+      </c>
+      <c r="K25" s="90">
         <f>J25*(1+P25)</f>
-        <v>7.7821439491722035</v>
-      </c>
-      <c r="L25" s="90" t="n">
+        <v>7.2890778064291881</v>
+      </c>
+      <c r="L25" s="90">
         <f>K25*(1+P25)</f>
-        <v>8.054518988552845</v>
-      </c>
-      <c r="M25" s="159" t="n">
+        <v>7.4895274461059911</v>
+      </c>
+      <c r="M25" s="159">
         <f>L25*(1+P25)/(P26-P25)</f>
-        <v>309.8387414031704</v>
+        <v>223.66904873679138</v>
       </c>
       <c r="N25" s="160"/>
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104" t="n">
-        <v>0.03500000014901161</v>
+      <c r="P25" s="104">
+        <v>2.75E-2</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90" t="n">
+      <c r="C26" s="90">
         <f>C25/(1+P26)</f>
-        <v>5.565324735263136</v>
-      </c>
-      <c r="D26" s="90" t="n">
+        <v>5.5249962943571198</v>
+      </c>
+      <c r="D26" s="90">
         <f>D25/(1+P26)^2</f>
-        <v>5.424315096674397</v>
-      </c>
-      <c r="E26" s="90" t="n">
+        <v>5.3459866635248154</v>
+      </c>
+      <c r="E26" s="90">
         <f>E25/(1+P26)^3</f>
-        <v>5.286878244781973</v>
-      </c>
-      <c r="F26" s="90" t="n">
+        <v>5.1727769366604912</v>
+      </c>
+      <c r="F26" s="90">
         <f>F25/(1+P26)^4</f>
-        <v>5.152923655243652</v>
-      </c>
-      <c r="G26" s="90" t="n">
+        <v>5.0051791971370845</v>
+      </c>
+      <c r="G26" s="90">
         <f>G25/(1+P26)^5</f>
-        <v>5.022363097348911</v>
-      </c>
-      <c r="H26" s="90" t="n">
+        <v>4.8430116168177761</v>
+      </c>
+      <c r="H26" s="90">
         <f>H25/(1+P26)^6</f>
-        <v>4.895110575904571</v>
-      </c>
-      <c r="I26" s="90" t="n">
+        <v>4.6860982587891824</v>
+      </c>
+      <c r="I26" s="90">
         <f>I25/(1+P26)^7</f>
-        <v>4.771082274593277</v>
-      </c>
-      <c r="J26" s="90" t="n">
+        <v>4.5342688864859815</v>
+      </c>
+      <c r="J26" s="90">
         <f>J25/(1+P26)^8</f>
-        <v>4.650196500766859</v>
-      </c>
-      <c r="K26" s="90" t="n">
+        <v>4.3873587789998902</v>
+      </c>
+      <c r="K26" s="90">
         <f>K25/(1+P26)^9</f>
-        <v>4.532373631638451</v>
-      </c>
-      <c r="L26" s="90" t="n">
+        <v>4.2452085523726293</v>
+      </c>
+      <c r="L26" s="90">
         <f>L25/(1+P26)^10</f>
-        <v>4.417536061838252</v>
-      </c>
-      <c r="M26" s="159" t="n">
+        <v>4.1076639866789808</v>
+      </c>
+      <c r="M26" s="159">
         <f>M25/POWER((1+P26),10)</f>
-        <v>169.93240880657476</v>
+        <v>122.67226511180631</v>
       </c>
       <c r="N26" s="160"/>
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105" t="n">
+      <c r="P26" s="105">
         <f>WACC!$C$25</f>
-        <v>0.061905696694895776</v>
+        <v>6.1905696694895776E-2</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -22214,9 +22205,9 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95" t="n">
+      <c r="C28" s="95">
         <f>SUM(C26:N26)*(1-P27)</f>
-        <v>219.650512680628</v>
+        <v>170.52481428363026</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
@@ -22259,12 +22250,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
-    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
-    <col min="19" max="19" customWidth="true" width="11.7265625"/>
+    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22307,38 +22298,38 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120" t="n">
-        <v>18380.0</v>
-      </c>
-      <c r="D3" s="110" t="n">
-        <v>18790.0</v>
-      </c>
-      <c r="E3" s="110" t="n">
-        <v>19960.0</v>
-      </c>
-      <c r="F3" s="110" t="n">
-        <v>22859.0</v>
-      </c>
-      <c r="G3" s="110" t="n">
-        <v>25638.0</v>
-      </c>
-      <c r="H3" s="110" t="n">
-        <v>28216.0</v>
-      </c>
-      <c r="I3" s="110" t="n">
-        <v>32753.0</v>
-      </c>
-      <c r="J3" s="110" t="n">
-        <v>33266.0</v>
-      </c>
-      <c r="K3" s="110" t="n">
-        <v>45804.0</v>
-      </c>
-      <c r="L3" s="110" t="n">
-        <v>56197.0</v>
-      </c>
-      <c r="M3" s="110" t="n">
-        <v>58054.0</v>
+      <c r="C3" s="120">
+        <v>18380</v>
+      </c>
+      <c r="D3" s="110">
+        <v>18790</v>
+      </c>
+      <c r="E3" s="110">
+        <v>19960</v>
+      </c>
+      <c r="F3" s="110">
+        <v>22859</v>
+      </c>
+      <c r="G3" s="110">
+        <v>25638</v>
+      </c>
+      <c r="H3" s="110">
+        <v>28216</v>
+      </c>
+      <c r="I3" s="110">
+        <v>32753</v>
+      </c>
+      <c r="J3" s="110">
+        <v>33266</v>
+      </c>
+      <c r="K3" s="110">
+        <v>45804</v>
+      </c>
+      <c r="L3" s="110">
+        <v>56197</v>
+      </c>
+      <c r="M3" s="110">
+        <v>58054</v>
       </c>
       <c r="Q3" s="107"/>
     </row>
@@ -22347,45 +22338,45 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121" t="n">
+      <c r="D4" s="121">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
-        <v>0.022306855277475515</v>
-      </c>
-      <c r="E4" s="121" t="n">
+        <v>2.2306855277475515E-2</v>
+      </c>
+      <c r="E4" s="121">
         <f t="shared" si="0"/>
-        <v>0.06226716338477914</v>
-      </c>
-      <c r="F4" s="121" t="n">
+        <v>6.2267163384779139E-2</v>
+      </c>
+      <c r="F4" s="121">
         <f t="shared" si="0"/>
         <v>0.14524048096192385</v>
       </c>
-      <c r="G4" s="121" t="n">
+      <c r="G4" s="121">
         <f t="shared" si="0"/>
         <v>0.12157137232599852</v>
       </c>
-      <c r="H4" s="121" t="n">
+      <c r="H4" s="121">
         <f t="shared" si="0"/>
         <v>0.10055386535611202</v>
       </c>
-      <c r="I4" s="121" t="n">
+      <c r="I4" s="121">
         <f t="shared" si="0"/>
-        <v>0.1607952934505245</v>
-      </c>
-      <c r="J4" s="121" t="n">
+        <v>0.16079529345052451</v>
+      </c>
+      <c r="J4" s="121">
         <f t="shared" si="0"/>
-        <v>0.015662687387414893</v>
-      </c>
-      <c r="K4" s="121" t="n">
+        <v>1.5662687387414893E-2</v>
+      </c>
+      <c r="K4" s="121">
         <f t="shared" si="0"/>
-        <v>0.3769013407082306</v>
-      </c>
-      <c r="L4" s="121" t="n">
+        <v>0.37690134070823061</v>
+      </c>
+      <c r="L4" s="121">
         <f t="shared" si="0"/>
         <v>0.22690158064797833</v>
       </c>
-      <c r="M4" s="121" t="n">
+      <c r="M4" s="121">
         <f t="shared" si="0"/>
-        <v>0.033044468565937686</v>
+        <v>3.3044468565937686E-2</v>
       </c>
       <c r="Q4" s="107"/>
     </row>
@@ -22408,38 +22399,38 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110" t="n">
-        <v>5275.0</v>
-      </c>
-      <c r="D6" s="110" t="n">
-        <v>4128.0</v>
-      </c>
-      <c r="E6" s="110" t="n">
-        <v>1774.0</v>
-      </c>
-      <c r="F6" s="110" t="n">
-        <v>5144.0</v>
-      </c>
-      <c r="G6" s="110" t="n">
-        <v>5953.0</v>
-      </c>
-      <c r="H6" s="110" t="n">
-        <v>5309.0</v>
-      </c>
-      <c r="I6" s="110" t="n">
-        <v>5687.0</v>
-      </c>
-      <c r="J6" s="110" t="n">
-        <v>7882.0</v>
-      </c>
-      <c r="K6" s="110" t="n">
-        <v>4616.0</v>
-      </c>
-      <c r="L6" s="110" t="n">
-        <v>11542.0</v>
-      </c>
-      <c r="M6" s="110" t="n">
-        <v>11836.0</v>
+      <c r="C6" s="110">
+        <v>5275</v>
+      </c>
+      <c r="D6" s="110">
+        <v>4128</v>
+      </c>
+      <c r="E6" s="110">
+        <v>1774</v>
+      </c>
+      <c r="F6" s="110">
+        <v>5144</v>
+      </c>
+      <c r="G6" s="110">
+        <v>5953</v>
+      </c>
+      <c r="H6" s="110">
+        <v>5309</v>
+      </c>
+      <c r="I6" s="110">
+        <v>5687</v>
+      </c>
+      <c r="J6" s="110">
+        <v>7882</v>
+      </c>
+      <c r="K6" s="110">
+        <v>4616</v>
+      </c>
+      <c r="L6" s="110">
+        <v>11542</v>
+      </c>
+      <c r="M6" s="110">
+        <v>11836</v>
       </c>
       <c r="Q6" s="107"/>
     </row>
@@ -22448,45 +22439,45 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121" t="n">
+      <c r="D7" s="121">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
         <v>-0.21744075829383885</v>
       </c>
-      <c r="E7" s="121" t="n">
+      <c r="E7" s="121">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
-        <v>-0.5702519379844961</v>
-      </c>
-      <c r="F7" s="121" t="n">
+        <v>-0.57025193798449614</v>
+      </c>
+      <c r="F7" s="121">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
         <v>1.8996617812852312</v>
       </c>
-      <c r="G7" s="121" t="n">
+      <c r="G7" s="121">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
         <v>0.1572706065318818</v>
       </c>
-      <c r="H7" s="121" t="n">
+      <c r="H7" s="121">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
         <v>-0.10818074920208298</v>
       </c>
-      <c r="I7" s="121" t="n">
+      <c r="I7" s="121">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
-        <v>0.07119984931248823</v>
-      </c>
-      <c r="J7" s="121" t="n">
+        <v>7.1199849312488225E-2</v>
+      </c>
+      <c r="J7" s="121">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
-        <v>0.3859679971865658</v>
-      </c>
-      <c r="K7" s="121" t="n">
+        <v>0.38596799718656583</v>
+      </c>
+      <c r="K7" s="121">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
         <v>-0.41436183709718344</v>
       </c>
-      <c r="L7" s="121" t="n">
+      <c r="L7" s="121">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
         <v>1.5004332755632583</v>
       </c>
-      <c r="M7" s="121" t="n">
+      <c r="M7" s="121">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
-        <v>0.025472188528851154</v>
+        <v>2.5472188528851154E-2</v>
       </c>
       <c r="Q7" s="107"/>
     </row>
@@ -22507,38 +22498,38 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110" t="n">
-        <v>6967.0</v>
-      </c>
-      <c r="D9" s="110" t="n">
-        <v>6561.0</v>
-      </c>
-      <c r="E9" s="110" t="n">
-        <v>4197.0</v>
-      </c>
-      <c r="F9" s="110" t="n">
-        <v>8373.0</v>
-      </c>
-      <c r="G9" s="110" t="n">
-        <v>10529.0</v>
-      </c>
-      <c r="H9" s="110" t="n">
-        <v>11046.0</v>
-      </c>
-      <c r="I9" s="110" t="n">
-        <v>8148.0</v>
-      </c>
-      <c r="J9" s="110" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="K9" s="110" t="n">
-        <v>17834.0</v>
-      </c>
-      <c r="L9" s="110" t="n">
-        <v>26445.0</v>
-      </c>
-      <c r="M9" s="110" t="n">
-        <v>26584.0</v>
+      <c r="C9" s="110">
+        <v>6967</v>
+      </c>
+      <c r="D9" s="110">
+        <v>6561</v>
+      </c>
+      <c r="E9" s="110">
+        <v>4197</v>
+      </c>
+      <c r="F9" s="110">
+        <v>8373</v>
+      </c>
+      <c r="G9" s="110">
+        <v>10529</v>
+      </c>
+      <c r="H9" s="110">
+        <v>11046</v>
+      </c>
+      <c r="I9" s="110">
+        <v>8148</v>
+      </c>
+      <c r="J9" s="110">
+        <v>15000</v>
+      </c>
+      <c r="K9" s="110">
+        <v>17834</v>
+      </c>
+      <c r="L9" s="110">
+        <v>26445</v>
+      </c>
+      <c r="M9" s="110">
+        <v>26584</v>
       </c>
       <c r="Q9" s="107"/>
     </row>
@@ -22547,45 +22538,45 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121" t="n">
+      <c r="D10" s="121">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
-        <v>-0.058274723697430746</v>
-      </c>
-      <c r="E10" s="121" t="n">
+        <v>-5.8274723697430746E-2</v>
+      </c>
+      <c r="E10" s="121">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
         <v>-0.36031092821216276</v>
       </c>
-      <c r="F10" s="121" t="n">
+      <c r="F10" s="121">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
-        <v>0.9949964260185847</v>
-      </c>
-      <c r="G10" s="121" t="n">
+        <v>0.99499642601858473</v>
+      </c>
+      <c r="G10" s="121">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
         <v>0.25749432700346353</v>
       </c>
-      <c r="H10" s="121" t="n">
+      <c r="H10" s="121">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
-        <v>0.04910247886788869</v>
-      </c>
-      <c r="I10" s="121" t="n">
+        <v>4.9102478867888689E-2</v>
+      </c>
+      <c r="I10" s="121">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
-        <v>-0.2623574144486692</v>
-      </c>
-      <c r="J10" s="121" t="n">
+        <v>-0.26235741444866922</v>
+      </c>
+      <c r="J10" s="121">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
-        <v>0.8409425625920471</v>
-      </c>
-      <c r="K10" s="121" t="n">
+        <v>0.84094256259204714</v>
+      </c>
+      <c r="K10" s="121">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
         <v>0.18893333333333334</v>
       </c>
-      <c r="L10" s="121" t="n">
+      <c r="L10" s="121">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
         <v>0.48284176292475045</v>
       </c>
-      <c r="M10" s="121" t="n">
+      <c r="M10" s="121">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
-        <v>0.005256192096804689</v>
+        <v>5.2561920968046891E-3</v>
       </c>
       <c r="Q10" s="107"/>
     </row>
@@ -22598,38 +22589,38 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110" t="n">
-        <v>1577.0</v>
-      </c>
-      <c r="D12" s="110" t="n">
-        <v>1604.0</v>
-      </c>
-      <c r="E12" s="110" t="n">
-        <v>1610.0</v>
-      </c>
-      <c r="F12" s="110" t="n">
-        <v>1637.0</v>
-      </c>
-      <c r="G12" s="110" t="n">
-        <v>1631.0</v>
-      </c>
-      <c r="H12" s="110" t="n">
-        <v>1603.0</v>
-      </c>
-      <c r="I12" s="110" t="n">
-        <v>1546.0</v>
-      </c>
-      <c r="J12" s="110" t="n">
-        <v>1484.0</v>
-      </c>
-      <c r="K12" s="110" t="n">
-        <v>1673.0</v>
-      </c>
-      <c r="L12" s="110" t="n">
-        <v>1777.0</v>
-      </c>
-      <c r="M12" s="110" t="n">
-        <v>1778.0</v>
+      <c r="C12" s="110">
+        <v>1577</v>
+      </c>
+      <c r="D12" s="110">
+        <v>1604</v>
+      </c>
+      <c r="E12" s="110">
+        <v>1610</v>
+      </c>
+      <c r="F12" s="110">
+        <v>1637</v>
+      </c>
+      <c r="G12" s="110">
+        <v>1631</v>
+      </c>
+      <c r="H12" s="110">
+        <v>1603</v>
+      </c>
+      <c r="I12" s="110">
+        <v>1546</v>
+      </c>
+      <c r="J12" s="110">
+        <v>1484</v>
+      </c>
+      <c r="K12" s="110">
+        <v>1673</v>
+      </c>
+      <c r="L12" s="110">
+        <v>1777</v>
+      </c>
+      <c r="M12" s="110">
+        <v>1778</v>
       </c>
       <c r="Q12" s="107"/>
     </row>
@@ -22638,45 +22629,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121" t="n">
+      <c r="D13" s="121">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>0.017121116043119847</v>
-      </c>
-      <c r="E13" s="121" t="n">
+        <v>1.7121116043119847E-2</v>
+      </c>
+      <c r="E13" s="121">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>0.003740648379052369</v>
-      </c>
-      <c r="F13" s="121" t="n">
+        <v>3.740648379052369E-3</v>
+      </c>
+      <c r="F13" s="121">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>0.016770186335403725</v>
-      </c>
-      <c r="G13" s="121" t="n">
+        <v>1.6770186335403725E-2</v>
+      </c>
+      <c r="G13" s="121">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
-        <v>-0.0036652412950519244</v>
-      </c>
-      <c r="H13" s="121" t="n">
+        <v>-3.6652412950519244E-3</v>
+      </c>
+      <c r="H13" s="121">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>-0.017167381974248927</v>
-      </c>
-      <c r="I13" s="121" t="n">
+        <v>-1.7167381974248927E-2</v>
+      </c>
+      <c r="I13" s="121">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
-        <v>-0.035558328134747345</v>
-      </c>
-      <c r="J13" s="121" t="n">
+        <v>-3.5558328134747345E-2</v>
+      </c>
+      <c r="J13" s="121">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>-0.040103492884864166</v>
-      </c>
-      <c r="K13" s="121" t="n">
+        <v>-4.0103492884864166E-2</v>
+      </c>
+      <c r="K13" s="121">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
         <v>0.12735849056603774</v>
       </c>
-      <c r="L13" s="121" t="n">
+      <c r="L13" s="121">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>0.062163777644949195</v>
-      </c>
-      <c r="M13" s="121" t="n">
+        <v>6.2163777644949195E-2</v>
+      </c>
+      <c r="M13" s="121">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>5.627462014631402E-4</v>
+        <v>5.6274620146314015E-4</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22689,37 +22680,37 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110" t="n">
+      <c r="C15" s="110">
         <v>3.3499999046325684</v>
       </c>
-      <c r="D15" s="110" t="n">
+      <c r="D15" s="110">
         <v>2.559999942779541</v>
       </c>
-      <c r="E15" s="110" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="F15" s="110" t="n">
+      <c r="E15" s="110">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="F15" s="110">
         <v>3.130000114440918</v>
       </c>
-      <c r="G15" s="110" t="n">
+      <c r="G15" s="110">
         <v>3.630000114440918</v>
       </c>
-      <c r="H15" s="110" t="n">
-        <v>3.299999952316284</v>
-      </c>
-      <c r="I15" s="110" t="n">
+      <c r="H15" s="110">
+        <v>3.2999999523162842</v>
+      </c>
+      <c r="I15" s="110">
         <v>3.6600000858306885</v>
       </c>
-      <c r="J15" s="110" t="n">
-        <v>5.28000020980835</v>
-      </c>
-      <c r="K15" s="110" t="n">
+      <c r="J15" s="110">
+        <v>5.2800002098083496</v>
+      </c>
+      <c r="K15" s="110">
         <v>2.7200000286102295</v>
       </c>
-      <c r="L15" s="110" t="n">
-        <v>6.449999809265137</v>
-      </c>
-      <c r="M15" s="110" t="n">
+      <c r="L15" s="110">
+        <v>6.4499998092651367</v>
+      </c>
+      <c r="M15" s="110">
         <v>6.630000114440918</v>
       </c>
       <c r="Q15" s="107"/>
@@ -22728,45 +22719,45 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121" t="n">
+      <c r="D16" s="121">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
-        <v>-0.235820890848555</v>
-      </c>
-      <c r="E16" s="121" t="n">
+        <v>-0.23582089084855501</v>
+      </c>
+      <c r="E16" s="121">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
-        <v>-0.5703124810825088</v>
-      </c>
-      <c r="F16" s="121" t="n">
+        <v>-0.57031248108250876</v>
+      </c>
+      <c r="F16" s="121">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
         <v>1.8454545878181727</v>
       </c>
-      <c r="G16" s="121" t="n">
+      <c r="G16" s="121">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
-        <v>0.1597444031050171</v>
-      </c>
-      <c r="H16" s="121" t="n">
+        <v>0.15974440310501711</v>
+      </c>
+      <c r="H16" s="121">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
-        <v>-0.09090913270548463</v>
-      </c>
-      <c r="I16" s="121" t="n">
+        <v>-9.0909132705484633E-2</v>
+      </c>
+      <c r="I16" s="121">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
         <v>0.10909095112614133</v>
       </c>
-      <c r="J16" s="121" t="n">
+      <c r="J16" s="121">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
         <v>0.4426229743133947</v>
       </c>
-      <c r="K16" s="121" t="n">
+      <c r="K16" s="121">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
         <v>-0.48484849990016216</v>
       </c>
-      <c r="L16" s="121" t="n">
+      <c r="L16" s="121">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
         <v>1.3713234343459673</v>
       </c>
-      <c r="M16" s="121" t="n">
+      <c r="M16" s="121">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
-        <v>0.027907024883507516</v>
+        <v>2.7907024883507516E-2</v>
       </c>
       <c r="Q16" s="107"/>
     </row>
@@ -22814,38 +22805,38 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110" t="n">
-        <v>6012.0</v>
-      </c>
-      <c r="D20" s="128" t="n">
-        <v>5776.0</v>
-      </c>
-      <c r="E20" s="128" t="n">
-        <v>2937.0</v>
-      </c>
-      <c r="F20" s="128" t="n">
-        <v>7003.0</v>
-      </c>
-      <c r="G20" s="128" t="n">
-        <v>6562.0</v>
-      </c>
-      <c r="H20" s="128" t="n">
-        <v>9431.0</v>
-      </c>
-      <c r="I20" s="128" t="n">
-        <v>12789.0</v>
-      </c>
-      <c r="J20" s="128" t="n">
-        <v>12772.0</v>
-      </c>
-      <c r="K20" s="128" t="n">
-        <v>16790.0</v>
-      </c>
-      <c r="L20" s="128" t="n">
-        <v>21990.0</v>
-      </c>
-      <c r="M20" s="128" t="n">
-        <v>24248.0</v>
+      <c r="C20" s="110">
+        <v>6012</v>
+      </c>
+      <c r="D20" s="128">
+        <v>5776</v>
+      </c>
+      <c r="E20" s="128">
+        <v>2937</v>
+      </c>
+      <c r="F20" s="128">
+        <v>7003</v>
+      </c>
+      <c r="G20" s="128">
+        <v>6562</v>
+      </c>
+      <c r="H20" s="128">
+        <v>9431</v>
+      </c>
+      <c r="I20" s="128">
+        <v>12789</v>
+      </c>
+      <c r="J20" s="128">
+        <v>12772</v>
+      </c>
+      <c r="K20" s="128">
+        <v>16790</v>
+      </c>
+      <c r="L20" s="128">
+        <v>21990</v>
+      </c>
+      <c r="M20" s="128">
+        <v>24248</v>
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107"/>
@@ -22874,41 +22865,40 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131" t="n">
+      <c r="E21" s="131">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
         <v>-0.49151662049861494</v>
       </c>
-      <c r="F21" s="131" t="n">
+      <c r="F21" s="131">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
         <v>1.3844058563159687</v>
       </c>
-      <c r="G21" s="131" t="n">
+      <c r="G21" s="131">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
-        <v>-0.06297301156647152</v>
-      </c>
-      <c r="H21" s="131" t="n">
+        <v>-6.2973011566471518E-2</v>
+      </c>
+      <c r="H21" s="131">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
         <v>0.43721426394391955</v>
       </c>
-      <c r="I21" s="131" t="n">
+      <c r="I21" s="131">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
-        <v>0.3560598027780723</v>
-      </c>
-      <c r="J21" s="131" t="n">
+        <v>0.35605980277807231</v>
+      </c>
+      <c r="J21" s="131">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
-        <v>-0.0013292673391195559</v>
-      </c>
-      <c r="K21" s="131" t="n">
+        <v>-1.3292673391195559E-3</v>
+      </c>
+      <c r="K21" s="131">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
-        <v>0.3145944253053555</v>
-      </c>
-      <c r="L21" s="131" t="n">
+        <v>0.31459442530535547</v>
+      </c>
+      <c r="L21" s="131">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
         <v>0.3097081596188207</v>
       </c>
-      <c r="M21" s="131" t="n">
+      <c r="M21" s="131">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
         <v>0.10268303774442929</v>
       </c>
@@ -22973,38 +22963,38 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="130" t="n">
-        <v>2555.0</v>
-      </c>
-      <c r="E23" s="130" t="n">
-        <v>2661.0</v>
-      </c>
-      <c r="F23" s="130" t="n">
-        <v>3294.0</v>
-      </c>
-      <c r="G23" s="130" t="n">
-        <v>3717.0</v>
-      </c>
-      <c r="H23" s="130" t="n">
-        <v>4107.0</v>
-      </c>
-      <c r="I23" s="130" t="n">
-        <v>5580.0</v>
-      </c>
-      <c r="J23" s="130" t="n">
-        <v>6366.0</v>
-      </c>
-      <c r="K23" s="130" t="n">
-        <v>7716.0</v>
-      </c>
-      <c r="L23" s="130" t="n">
-        <v>9261.0</v>
-      </c>
-      <c r="M23" s="130" t="n">
-        <v>10043.0</v>
+      <c r="C23" s="113">
+        <v>0</v>
+      </c>
+      <c r="D23" s="130">
+        <v>2555</v>
+      </c>
+      <c r="E23" s="130">
+        <v>2661</v>
+      </c>
+      <c r="F23" s="130">
+        <v>3294</v>
+      </c>
+      <c r="G23" s="130">
+        <v>3717</v>
+      </c>
+      <c r="H23" s="130">
+        <v>4107</v>
+      </c>
+      <c r="I23" s="130">
+        <v>5580</v>
+      </c>
+      <c r="J23" s="130">
+        <v>6366</v>
+      </c>
+      <c r="K23" s="130">
+        <v>7716</v>
+      </c>
+      <c r="L23" s="130">
+        <v>9261</v>
+      </c>
+      <c r="M23" s="130">
+        <v>10043</v>
       </c>
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
@@ -23034,41 +23024,41 @@
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="121" t="n">
+      <c r="E24" s="121">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
-        <v>0.041487279843444226</v>
-      </c>
-      <c r="F24" s="121" t="n">
+        <v>4.1487279843444226E-2</v>
+      </c>
+      <c r="F24" s="121">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
-        <v>0.237880496054115</v>
-      </c>
-      <c r="G24" s="121" t="n">
+        <v>0.23788049605411499</v>
+      </c>
+      <c r="G24" s="121">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
-        <v>0.1284153005464481</v>
-      </c>
-      <c r="H24" s="121" t="n">
+        <v>0.12841530054644809</v>
+      </c>
+      <c r="H24" s="121">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
         <v>0.10492332526230831</v>
       </c>
-      <c r="I24" s="121" t="n">
+      <c r="I24" s="121">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
         <v>0.35865595325054783</v>
       </c>
-      <c r="J24" s="121" t="n">
+      <c r="J24" s="121">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
         <v>0.14086021505376345</v>
       </c>
-      <c r="K24" s="121" t="n">
+      <c r="K24" s="121">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
         <v>0.21206409048067862</v>
       </c>
-      <c r="L24" s="121" t="n">
+      <c r="L24" s="121">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
         <v>0.20023328149300154</v>
       </c>
-      <c r="M24" s="121" t="n">
+      <c r="M24" s="121">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
-        <v>0.08444012525645178</v>
+        <v>8.4440125256451781E-2</v>
       </c>
       <c r="O24" s="107"/>
       <c r="P24" s="107"/>
@@ -23205,38 +23195,38 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110" t="n">
-        <v>15354.0</v>
-      </c>
-      <c r="D28" s="110" t="n">
-        <v>17848.0</v>
-      </c>
-      <c r="E28" s="110" t="n">
-        <v>16081.0</v>
-      </c>
-      <c r="F28" s="110" t="n">
-        <v>16314.0</v>
-      </c>
-      <c r="G28" s="110" t="n">
-        <v>16187.0</v>
-      </c>
-      <c r="H28" s="110" t="n">
-        <v>21223.0</v>
-      </c>
-      <c r="I28" s="110" t="n">
-        <v>16945.0</v>
-      </c>
-      <c r="J28" s="110" t="n">
-        <v>49519.0</v>
-      </c>
-      <c r="K28" s="110" t="n">
-        <v>24173.0</v>
-      </c>
-      <c r="L28" s="110" t="n">
-        <v>27928.0</v>
-      </c>
-      <c r="M28" s="110" t="n">
-        <v>28463.0</v>
+      <c r="C28" s="110">
+        <v>15354</v>
+      </c>
+      <c r="D28" s="110">
+        <v>17848</v>
+      </c>
+      <c r="E28" s="110">
+        <v>16081</v>
+      </c>
+      <c r="F28" s="110">
+        <v>16314</v>
+      </c>
+      <c r="G28" s="110">
+        <v>16187</v>
+      </c>
+      <c r="H28" s="110">
+        <v>21223</v>
+      </c>
+      <c r="I28" s="110">
+        <v>16945</v>
+      </c>
+      <c r="J28" s="110">
+        <v>49519</v>
+      </c>
+      <c r="K28" s="110">
+        <v>24173</v>
+      </c>
+      <c r="L28" s="110">
+        <v>27928</v>
+      </c>
+      <c r="M28" s="110">
+        <v>28463</v>
       </c>
       <c r="O28" s="107"/>
       <c r="P28" s="107"/>
@@ -23266,45 +23256,45 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121" t="n">
+      <c r="D29" s="121">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
         <v>0.16243324215188223</v>
       </c>
-      <c r="E29" s="121" t="n">
+      <c r="E29" s="121">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
-        <v>-0.09900268937696101</v>
-      </c>
-      <c r="F29" s="121" t="n">
+        <v>-9.9002689376961009E-2</v>
+      </c>
+      <c r="F29" s="121">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
-        <v>0.014489148684783284</v>
-      </c>
-      <c r="G29" s="121" t="n">
+        <v>1.4489148684783284E-2</v>
+      </c>
+      <c r="G29" s="121">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
-        <v>-0.007784724776265784</v>
-      </c>
-      <c r="H29" s="121" t="n">
+        <v>-7.7847247762657841E-3</v>
+      </c>
+      <c r="H29" s="121">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
         <v>0.3111138567986656</v>
       </c>
-      <c r="I29" s="121" t="n">
+      <c r="I29" s="121">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
         <v>-0.2015737643123027</v>
       </c>
-      <c r="J29" s="121" t="n">
+      <c r="J29" s="121">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
         <v>1.9223369725582768</v>
       </c>
-      <c r="K29" s="121" t="n">
+      <c r="K29" s="121">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
-        <v>-0.5118439386901997</v>
-      </c>
-      <c r="L29" s="121" t="n">
+        <v>-0.51184393869019973</v>
+      </c>
+      <c r="L29" s="121">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
         <v>0.15533860091838</v>
       </c>
-      <c r="M29" s="121" t="n">
+      <c r="M29" s="121">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
-        <v>0.01915640217702664</v>
+        <v>1.9156402177026639E-2</v>
       </c>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
@@ -23357,38 +23347,38 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110" t="n">
-        <v>11654.0</v>
-      </c>
-      <c r="D31" s="110" t="n">
-        <v>11350.0</v>
-      </c>
-      <c r="E31" s="110" t="n">
-        <v>11432.0</v>
-      </c>
-      <c r="F31" s="110" t="n">
-        <v>36736.0</v>
-      </c>
-      <c r="G31" s="110" t="n">
-        <v>49912.0</v>
-      </c>
-      <c r="H31" s="110" t="n">
-        <v>49563.0</v>
-      </c>
-      <c r="I31" s="110" t="n">
-        <v>42407.0</v>
-      </c>
-      <c r="J31" s="110" t="n">
-        <v>39596.0</v>
-      </c>
-      <c r="K31" s="110" t="n">
-        <v>126392.0</v>
-      </c>
-      <c r="L31" s="110" t="n">
-        <v>118601.0</v>
-      </c>
-      <c r="M31" s="110" t="n">
-        <v>110342.0</v>
+      <c r="C31" s="110">
+        <v>11654</v>
+      </c>
+      <c r="D31" s="110">
+        <v>11350</v>
+      </c>
+      <c r="E31" s="110">
+        <v>11432</v>
+      </c>
+      <c r="F31" s="110">
+        <v>36736</v>
+      </c>
+      <c r="G31" s="110">
+        <v>49912</v>
+      </c>
+      <c r="H31" s="110">
+        <v>49563</v>
+      </c>
+      <c r="I31" s="110">
+        <v>42407</v>
+      </c>
+      <c r="J31" s="110">
+        <v>39596</v>
+      </c>
+      <c r="K31" s="110">
+        <v>126392</v>
+      </c>
+      <c r="L31" s="110">
+        <v>118601</v>
+      </c>
+      <c r="M31" s="110">
+        <v>110342</v>
       </c>
       <c r="O31" s="107"/>
       <c r="P31" s="107"/>
@@ -23418,45 +23408,45 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121" t="n">
+      <c r="D32" s="121">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
-        <v>-0.02608546421829415</v>
-      </c>
-      <c r="E32" s="121" t="n">
+        <v>-2.6085464218294149E-2</v>
+      </c>
+      <c r="E32" s="121">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
-        <v>0.007224669603524229</v>
-      </c>
-      <c r="F32" s="121" t="n">
+        <v>7.2246696035242293E-3</v>
+      </c>
+      <c r="F32" s="121">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
         <v>2.2134359692092374</v>
       </c>
-      <c r="G32" s="121" t="n">
+      <c r="G32" s="121">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
-        <v>0.3586672473867596</v>
-      </c>
-      <c r="H32" s="121" t="n">
+        <v>0.35866724738675959</v>
+      </c>
+      <c r="H32" s="121">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
-        <v>-0.006992306459368489</v>
-      </c>
-      <c r="I32" s="121" t="n">
+        <v>-6.9923064593684888E-3</v>
+      </c>
+      <c r="I32" s="121">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
         <v>-0.14438189778665536</v>
       </c>
-      <c r="J32" s="121" t="n">
+      <c r="J32" s="121">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
-        <v>-0.06628622633055864</v>
-      </c>
-      <c r="K32" s="121" t="n">
+        <v>-6.628622633055864E-2</v>
+      </c>
+      <c r="K32" s="121">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>2.192039599959592</v>
-      </c>
-      <c r="L32" s="121" t="n">
+        <v>2.1920395999595921</v>
+      </c>
+      <c r="L32" s="121">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
-        <v>-0.06164155959237926</v>
-      </c>
-      <c r="M32" s="121" t="n">
+        <v>-6.1641559592379262E-2</v>
+      </c>
+      <c r="M32" s="121">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
-        <v>-0.06963684960497804</v>
+        <v>-6.9636849604978041E-2</v>
       </c>
       <c r="O32" s="107"/>
       <c r="P32" s="107"/>
@@ -23510,45 +23500,45 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111" t="n">
+      <c r="D34" s="111">
         <f>D28+D31</f>
-        <v>29198.0</v>
-      </c>
-      <c r="E34" s="111" t="n">
+        <v>29198</v>
+      </c>
+      <c r="E34" s="111">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
-        <v>27513.0</v>
-      </c>
-      <c r="F34" s="111" t="n">
+        <v>27513</v>
+      </c>
+      <c r="F34" s="111">
         <f t="shared" si="80"/>
-        <v>53050.0</v>
-      </c>
-      <c r="G34" s="111" t="n">
+        <v>53050</v>
+      </c>
+      <c r="G34" s="111">
         <f t="shared" si="80"/>
-        <v>66099.0</v>
-      </c>
-      <c r="H34" s="111" t="n">
+        <v>66099</v>
+      </c>
+      <c r="H34" s="111">
         <f t="shared" si="80"/>
-        <v>70786.0</v>
-      </c>
-      <c r="I34" s="111" t="n">
+        <v>70786</v>
+      </c>
+      <c r="I34" s="111">
         <f t="shared" si="80"/>
-        <v>59352.0</v>
-      </c>
-      <c r="J34" s="111" t="n">
+        <v>59352</v>
+      </c>
+      <c r="J34" s="111">
         <f t="shared" si="80"/>
-        <v>89115.0</v>
-      </c>
-      <c r="K34" s="111" t="n">
+        <v>89115</v>
+      </c>
+      <c r="K34" s="111">
         <f t="shared" si="80"/>
-        <v>150565.0</v>
-      </c>
-      <c r="L34" s="111" t="n">
+        <v>150565</v>
+      </c>
+      <c r="L34" s="111">
         <f t="shared" si="80"/>
-        <v>146529.0</v>
-      </c>
-      <c r="M34" s="111" t="n">
+        <v>146529</v>
+      </c>
+      <c r="M34" s="111">
         <f t="shared" si="80"/>
-        <v>138805.0</v>
+        <v>138805</v>
       </c>
       <c r="O34" s="107"/>
       <c r="P34" s="107"/>
@@ -23601,38 +23591,38 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113" t="n">
-        <v>6776.0</v>
-      </c>
-      <c r="D36" s="118" t="n">
-        <v>6879.0</v>
-      </c>
-      <c r="E36" s="110" t="n">
-        <v>11393.0</v>
-      </c>
-      <c r="F36" s="110" t="n">
-        <v>10894.0</v>
-      </c>
-      <c r="G36" s="110" t="n">
-        <v>9781.0</v>
-      </c>
-      <c r="H36" s="110" t="n">
-        <v>16641.0</v>
-      </c>
-      <c r="I36" s="110" t="n">
-        <v>17239.0</v>
-      </c>
-      <c r="J36" s="110" t="n">
-        <v>15585.0</v>
-      </c>
-      <c r="K36" s="110" t="n">
-        <v>28661.0</v>
-      </c>
-      <c r="L36" s="110" t="n">
-        <v>35194.0</v>
-      </c>
-      <c r="M36" s="110" t="n">
-        <v>29538.0</v>
+      <c r="C36" s="113">
+        <v>6776</v>
+      </c>
+      <c r="D36" s="118">
+        <v>6879</v>
+      </c>
+      <c r="E36" s="110">
+        <v>11393</v>
+      </c>
+      <c r="F36" s="110">
+        <v>10894</v>
+      </c>
+      <c r="G36" s="110">
+        <v>9781</v>
+      </c>
+      <c r="H36" s="110">
+        <v>16641</v>
+      </c>
+      <c r="I36" s="110">
+        <v>17239</v>
+      </c>
+      <c r="J36" s="110">
+        <v>15585</v>
+      </c>
+      <c r="K36" s="110">
+        <v>28661</v>
+      </c>
+      <c r="L36" s="110">
+        <v>35194</v>
+      </c>
+      <c r="M36" s="110">
+        <v>29538</v>
       </c>
       <c r="O36" s="107"/>
       <c r="P36" s="107"/>
@@ -23662,43 +23652,43 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121" t="n">
+      <c r="D37" s="121">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
-        <v>0.015200708382526565</v>
-      </c>
-      <c r="E37" s="121" t="n">
+        <v>1.5200708382526565E-2</v>
+      </c>
+      <c r="E37" s="121">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
-        <v>0.6562000290739933</v>
-      </c>
-      <c r="F37" s="121" t="n">
+        <v>0.65620002907399333</v>
+      </c>
+      <c r="F37" s="121">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
-        <v>-0.04379882383919951</v>
-      </c>
-      <c r="G37" s="121" t="n">
+        <v>-4.3798823839199509E-2</v>
+      </c>
+      <c r="G37" s="121">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
         <v>-0.10216633008995778</v>
       </c>
-      <c r="H37" s="121" t="n">
+      <c r="H37" s="121">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
-        <v>0.7013597791636847</v>
-      </c>
-      <c r="I37" s="121" t="n">
+        <v>0.70135977916368475</v>
+      </c>
+      <c r="I37" s="121">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
-        <v>0.03593534042425335</v>
-      </c>
-      <c r="J37" s="121" t="n">
+        <v>3.5935340424253351E-2</v>
+      </c>
+      <c r="J37" s="121">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
-        <v>-0.09594524044318116</v>
-      </c>
-      <c r="K37" s="121" t="n">
+        <v>-9.594524044318116E-2</v>
+      </c>
+      <c r="K37" s="121">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
         <v>0.8390118703881938</v>
       </c>
-      <c r="L37" s="121" t="n">
+      <c r="L37" s="121">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
         <v>0.22794040682460487</v>
       </c>
-      <c r="M37" s="121" t="n">
+      <c r="M37" s="121">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
         <v>-0.16070921179746547</v>
       </c>
@@ -23753,38 +23743,38 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113" t="n">
-        <v>16869.0</v>
-      </c>
-      <c r="D39" s="110" t="n">
-        <v>17827.0</v>
-      </c>
-      <c r="E39" s="110" t="n">
-        <v>14378.0</v>
-      </c>
-      <c r="F39" s="110" t="n">
-        <v>38211.0</v>
-      </c>
-      <c r="G39" s="110" t="n">
-        <v>51682.0</v>
-      </c>
-      <c r="H39" s="110" t="n">
-        <v>49048.0</v>
-      </c>
-      <c r="I39" s="110" t="n">
-        <v>50559.0</v>
-      </c>
-      <c r="J39" s="110" t="n">
-        <v>81702.0</v>
-      </c>
-      <c r="K39" s="110" t="n">
-        <v>108807.0</v>
-      </c>
-      <c r="L39" s="110" t="n">
-        <v>95899.0</v>
-      </c>
-      <c r="M39" s="110" t="n">
-        <v>91980.0</v>
+      <c r="C39" s="113">
+        <v>16869</v>
+      </c>
+      <c r="D39" s="110">
+        <v>17827</v>
+      </c>
+      <c r="E39" s="110">
+        <v>14378</v>
+      </c>
+      <c r="F39" s="110">
+        <v>38211</v>
+      </c>
+      <c r="G39" s="110">
+        <v>51682</v>
+      </c>
+      <c r="H39" s="110">
+        <v>49048</v>
+      </c>
+      <c r="I39" s="110">
+        <v>50559</v>
+      </c>
+      <c r="J39" s="110">
+        <v>81702</v>
+      </c>
+      <c r="K39" s="110">
+        <v>108807</v>
+      </c>
+      <c r="L39" s="110">
+        <v>95899</v>
+      </c>
+      <c r="M39" s="110">
+        <v>91980</v>
       </c>
       <c r="O39" s="107"/>
       <c r="P39" s="107"/>
@@ -23814,45 +23804,45 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121" t="n">
+      <c r="D40" s="121">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
-        <v>0.0567905625703954</v>
-      </c>
-      <c r="E40" s="121" t="n">
+        <v>5.67905625703954E-2</v>
+      </c>
+      <c r="E40" s="121">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
         <v>-0.19347057833623155</v>
       </c>
-      <c r="F40" s="121" t="n">
+      <c r="F40" s="121">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
         <v>1.6576018917791069</v>
       </c>
-      <c r="G40" s="121" t="n">
+      <c r="G40" s="121">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
-        <v>0.3525424615948287</v>
-      </c>
-      <c r="H40" s="121" t="n">
+        <v>0.35254246159482872</v>
+      </c>
+      <c r="H40" s="121">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
-        <v>-0.05096551991022019</v>
-      </c>
-      <c r="I40" s="121" t="n">
+        <v>-5.0965519910220192E-2</v>
+      </c>
+      <c r="I40" s="121">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
-        <v>0.030806556842276952</v>
-      </c>
-      <c r="J40" s="121" t="n">
+        <v>3.0806556842276952E-2</v>
+      </c>
+      <c r="J40" s="121">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
-        <v>0.6159734171957515</v>
-      </c>
-      <c r="K40" s="121" t="n">
+        <v>0.61597341719575149</v>
+      </c>
+      <c r="K40" s="121">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
         <v>0.33175442461628846</v>
       </c>
-      <c r="L40" s="121" t="n">
+      <c r="L40" s="121">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
         <v>-0.11863207330410727</v>
       </c>
-      <c r="M40" s="121" t="n">
+      <c r="M40" s="121">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
-        <v>-0.04086591101054234</v>
+        <v>-4.0865911010542343E-2</v>
       </c>
       <c r="O40" s="107"/>
       <c r="P40" s="107"/>
@@ -23908,45 +23898,45 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111" t="n">
+      <c r="D42" s="111">
         <f>D36+D39</f>
-        <v>24706.0</v>
-      </c>
-      <c r="E42" s="111" t="n">
+        <v>24706</v>
+      </c>
+      <c r="E42" s="111">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
-        <v>25771.0</v>
-      </c>
-      <c r="F42" s="111" t="n">
+        <v>25771</v>
+      </c>
+      <c r="F42" s="111">
         <f t="shared" si="101"/>
-        <v>49105.0</v>
-      </c>
-      <c r="G42" s="111" t="n">
+        <v>49105</v>
+      </c>
+      <c r="G42" s="111">
         <f t="shared" si="101"/>
-        <v>61463.0</v>
-      </c>
-      <c r="H42" s="111" t="n">
+        <v>61463</v>
+      </c>
+      <c r="H42" s="111">
         <f t="shared" si="101"/>
-        <v>65689.0</v>
-      </c>
-      <c r="I42" s="111" t="n">
+        <v>65689</v>
+      </c>
+      <c r="I42" s="111">
         <f t="shared" si="101"/>
-        <v>67798.0</v>
-      </c>
-      <c r="J42" s="111" t="n">
+        <v>67798</v>
+      </c>
+      <c r="J42" s="111">
         <f t="shared" si="101"/>
-        <v>97287.0</v>
-      </c>
-      <c r="K42" s="111" t="n">
+        <v>97287</v>
+      </c>
+      <c r="K42" s="111">
         <f t="shared" si="101"/>
-        <v>137468.0</v>
-      </c>
-      <c r="L42" s="111" t="n">
+        <v>137468</v>
+      </c>
+      <c r="L42" s="111">
         <f t="shared" si="101"/>
-        <v>131093.0</v>
-      </c>
-      <c r="M42" s="111" t="n">
+        <v>131093</v>
+      </c>
+      <c r="M42" s="111">
         <f t="shared" si="101"/>
-        <v>121518.0</v>
+        <v>121518</v>
       </c>
       <c r="O42" s="107"/>
       <c r="P42" s="107"/>
@@ -24004,45 +23994,45 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134" t="n">
+      <c r="D44" s="134">
         <f>D34-D42</f>
-        <v>4492.0</v>
-      </c>
-      <c r="E44" s="134" t="n">
+        <v>4492</v>
+      </c>
+      <c r="E44" s="134">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
-        <v>1742.0</v>
-      </c>
-      <c r="F44" s="134" t="n">
+        <v>1742</v>
+      </c>
+      <c r="F44" s="134">
         <f t="shared" si="102"/>
-        <v>3945.0</v>
-      </c>
-      <c r="G44" s="134" t="n">
+        <v>3945</v>
+      </c>
+      <c r="G44" s="134">
         <f t="shared" si="102"/>
-        <v>4636.0</v>
-      </c>
-      <c r="H44" s="134" t="n">
+        <v>4636</v>
+      </c>
+      <c r="H44" s="134">
         <f t="shared" si="102"/>
-        <v>5097.0</v>
-      </c>
-      <c r="I44" s="134" t="n">
+        <v>5097</v>
+      </c>
+      <c r="I44" s="134">
         <f t="shared" si="102"/>
-        <v>-8446.0</v>
-      </c>
-      <c r="J44" s="134" t="n">
+        <v>-8446</v>
+      </c>
+      <c r="J44" s="134">
         <f t="shared" si="102"/>
-        <v>-8172.0</v>
-      </c>
-      <c r="K44" s="134" t="n">
+        <v>-8172</v>
+      </c>
+      <c r="K44" s="134">
         <f t="shared" si="102"/>
-        <v>13097.0</v>
-      </c>
-      <c r="L44" s="134" t="n">
+        <v>13097</v>
+      </c>
+      <c r="L44" s="134">
         <f t="shared" si="102"/>
-        <v>15436.0</v>
-      </c>
-      <c r="M44" s="134" t="n">
+        <v>15436</v>
+      </c>
+      <c r="M44" s="134">
         <f t="shared" si="102"/>
-        <v>17287.0</v>
+        <v>17287</v>
       </c>
       <c r="O44" s="107"/>
       <c r="P44" s="107"/>
@@ -24104,40 +24094,40 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="133" t="n">
-        <v>14630.0</v>
-      </c>
-      <c r="D46" s="133" t="n">
-        <v>14292.0</v>
-      </c>
-      <c r="E46" s="133" t="n">
-        <v>10538.0</v>
-      </c>
-      <c r="F46" s="133" t="n">
-        <v>29240.0</v>
-      </c>
-      <c r="G46" s="133" t="n">
-        <v>36440.0</v>
-      </c>
-      <c r="H46" s="133" t="n">
-        <v>30953.0</v>
-      </c>
-      <c r="I46" s="133" t="n">
-        <v>35002.0</v>
-      </c>
-      <c r="J46" s="133" t="n">
-        <v>62975.0</v>
-      </c>
-      <c r="K46" s="136" t="n">
-        <v>77554.0</v>
-      </c>
-      <c r="L46" s="133" t="n">
-        <v>64189.0</v>
-      </c>
-      <c r="M46" s="133" t="n">
-        <v>59135.0</v>
+        <v>155</v>
+      </c>
+      <c r="C46" s="133">
+        <v>14630</v>
+      </c>
+      <c r="D46" s="133">
+        <v>14292</v>
+      </c>
+      <c r="E46" s="133">
+        <v>10538</v>
+      </c>
+      <c r="F46" s="133">
+        <v>29240</v>
+      </c>
+      <c r="G46" s="133">
+        <v>36440</v>
+      </c>
+      <c r="H46" s="133">
+        <v>30953</v>
+      </c>
+      <c r="I46" s="133">
+        <v>35002</v>
+      </c>
+      <c r="J46" s="133">
+        <v>62975</v>
+      </c>
+      <c r="K46" s="136">
+        <v>77554</v>
+      </c>
+      <c r="L46" s="133">
+        <v>64189</v>
+      </c>
+      <c r="M46" s="133">
+        <v>59135</v>
       </c>
       <c r="Q46" s="107"/>
       <c r="R46" s="107"/>
@@ -24271,43 +24261,43 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126" t="n">
+      <c r="D50" s="126">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
         <v>0.21969132517296433</v>
       </c>
-      <c r="E50" s="126" t="n">
+      <c r="E50" s="126">
         <f t="shared" si="103"/>
-        <v>0.08887775551102205</v>
-      </c>
-      <c r="F50" s="126" t="n">
+        <v>8.8877755511022047E-2</v>
+      </c>
+      <c r="F50" s="126">
         <f t="shared" si="103"/>
         <v>0.22503171617306095</v>
       </c>
-      <c r="G50" s="126" t="n">
+      <c r="G50" s="126">
         <f t="shared" si="103"/>
         <v>0.23219439893907481</v>
       </c>
-      <c r="H50" s="126" t="n">
+      <c r="H50" s="126">
         <f t="shared" si="103"/>
-        <v>0.1881556563651829</v>
-      </c>
-      <c r="I50" s="126" t="n">
+        <v>0.18815565636518289</v>
+      </c>
+      <c r="I50" s="126">
         <f t="shared" si="103"/>
         <v>0.17363294965346684</v>
       </c>
-      <c r="J50" s="126" t="n">
+      <c r="J50" s="126">
         <f t="shared" si="103"/>
         <v>0.23693861600432875</v>
       </c>
-      <c r="K50" s="126" t="n">
+      <c r="K50" s="126">
         <f t="shared" si="103"/>
         <v>0.10077722469653305</v>
       </c>
-      <c r="L50" s="126" t="n">
+      <c r="L50" s="126">
         <f t="shared" si="103"/>
-        <v>0.2053846290727263</v>
-      </c>
-      <c r="M50" s="126" t="n">
+        <v>0.20538462907272631</v>
+      </c>
+      <c r="M50" s="126">
         <f t="shared" si="103"/>
         <v>0.20387914700106796</v>
       </c>
@@ -24339,43 +24329,43 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126" t="n">
+      <c r="D51" s="126">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
         <v>0.34917509313464606</v>
       </c>
-      <c r="E51" s="126" t="n">
+      <c r="E51" s="126">
         <f t="shared" si="104"/>
         <v>0.21027054108216434</v>
       </c>
-      <c r="F51" s="126" t="n">
+      <c r="F51" s="126">
         <f t="shared" si="104"/>
         <v>0.36628898901964213</v>
       </c>
-      <c r="G51" s="126" t="n">
+      <c r="G51" s="126">
         <f t="shared" si="104"/>
         <v>0.4106794601763008</v>
       </c>
-      <c r="H51" s="126" t="n">
+      <c r="H51" s="126">
         <f t="shared" si="104"/>
         <v>0.39148001134108307</v>
       </c>
-      <c r="I51" s="126" t="n">
+      <c r="I51" s="126">
         <f t="shared" si="104"/>
         <v>0.24877110493695234</v>
       </c>
-      <c r="J51" s="126" t="n">
+      <c r="J51" s="126">
         <f t="shared" si="104"/>
-        <v>0.4509108398965911</v>
-      </c>
-      <c r="K51" s="126" t="n">
+        <v>0.45091083989659109</v>
+      </c>
+      <c r="K51" s="126">
         <f t="shared" si="104"/>
-        <v>0.3893546415160248</v>
-      </c>
-      <c r="L51" s="126" t="n">
+        <v>0.38935464151602478</v>
+      </c>
+      <c r="L51" s="126">
         <f t="shared" si="104"/>
         <v>0.47057672117728705</v>
       </c>
-      <c r="M51" s="126" t="n">
+      <c r="M51" s="126">
         <f t="shared" si="104"/>
         <v>0.4579184896820202</v>
       </c>
@@ -24407,43 +24397,43 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126" t="n">
+      <c r="D52" s="126">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
         <v>0.30739755188930284</v>
       </c>
-      <c r="E52" s="126" t="n">
+      <c r="E52" s="126">
         <f t="shared" si="105"/>
-        <v>0.1471442885771543</v>
-      </c>
-      <c r="F52" s="126" t="n">
+        <v>0.14714428857715431</v>
+      </c>
+      <c r="F52" s="126">
         <f t="shared" si="105"/>
-        <v>0.3063563585458681</v>
-      </c>
-      <c r="G52" s="126" t="n">
+        <v>0.30635635854586812</v>
+      </c>
+      <c r="G52" s="126">
         <f t="shared" si="105"/>
         <v>0.25594820188782275</v>
       </c>
-      <c r="H52" s="126" t="n">
+      <c r="H52" s="126">
         <f t="shared" si="105"/>
-        <v>0.3342429827048483</v>
-      </c>
-      <c r="I52" s="126" t="n">
+        <v>0.33424298270484831</v>
+      </c>
+      <c r="I52" s="126">
         <f t="shared" si="105"/>
-        <v>0.3904680487283608</v>
-      </c>
-      <c r="J52" s="126" t="n">
+        <v>0.39046804872836077</v>
+      </c>
+      <c r="J52" s="126">
         <f t="shared" si="105"/>
         <v>0.38393554981061745</v>
       </c>
-      <c r="K52" s="126" t="n">
+      <c r="K52" s="126">
         <f t="shared" si="105"/>
-        <v>0.3665618723255611</v>
-      </c>
-      <c r="L52" s="126" t="n">
+        <v>0.36656187232556109</v>
+      </c>
+      <c r="L52" s="126">
         <f t="shared" si="105"/>
         <v>0.39130202679858356</v>
       </c>
-      <c r="M52" s="126" t="n">
+      <c r="M52" s="126">
         <f t="shared" si="105"/>
         <v>0.41768009094980535</v>
       </c>
@@ -24557,43 +24547,43 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126" t="n">
+      <c r="D55" s="126">
         <f>D23/D20</f>
-        <v>0.4423476454293629</v>
-      </c>
-      <c r="E55" s="126" t="n">
+        <v>0.44234764542936289</v>
+      </c>
+      <c r="E55" s="126">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
-        <v>0.906026557711951</v>
-      </c>
-      <c r="F55" s="126" t="n">
+        <v>0.90602655771195095</v>
+      </c>
+      <c r="F55" s="126">
         <f t="shared" si="106"/>
-        <v>0.4703698414965015</v>
-      </c>
-      <c r="G55" s="126" t="n">
+        <v>0.47036984149650152</v>
+      </c>
+      <c r="G55" s="126">
         <f t="shared" si="106"/>
-        <v>0.5664431575739104</v>
-      </c>
-      <c r="H55" s="126" t="n">
+        <v>0.56644315757391039</v>
+      </c>
+      <c r="H55" s="126">
         <f t="shared" si="106"/>
-        <v>0.4354787403244619</v>
-      </c>
-      <c r="I55" s="126" t="n">
+        <v>0.43547874032446188</v>
+      </c>
+      <c r="I55" s="126">
         <f t="shared" si="106"/>
         <v>0.4363124560168895</v>
       </c>
-      <c r="J55" s="126" t="n">
+      <c r="J55" s="126">
         <f t="shared" si="106"/>
         <v>0.498434074538052</v>
       </c>
-      <c r="K55" s="126" t="n">
+      <c r="K55" s="126">
         <f t="shared" si="106"/>
         <v>0.45955926146515785</v>
       </c>
-      <c r="L55" s="126" t="n">
+      <c r="L55" s="126">
         <f t="shared" si="106"/>
         <v>0.42114597544338334</v>
       </c>
-      <c r="M55" s="126" t="n">
+      <c r="M55" s="126">
         <f t="shared" si="106"/>
         <v>0.41417848894754206</v>
       </c>
@@ -24707,45 +24697,45 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112" t="n">
+      <c r="D58" s="112">
         <f>D42/D44</f>
         <v>5.5</v>
       </c>
-      <c r="E58" s="112" t="n">
+      <c r="E58" s="112">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
         <v>14.793915040183697</v>
       </c>
-      <c r="F58" s="112" t="n">
+      <c r="F58" s="112">
         <f t="shared" si="107"/>
         <v>12.447401774397973</v>
       </c>
-      <c r="G58" s="112" t="n">
+      <c r="G58" s="112">
         <f t="shared" si="107"/>
         <v>13.257765314926662</v>
       </c>
-      <c r="H58" s="112" t="n">
+      <c r="H58" s="112">
         <f t="shared" si="107"/>
         <v>12.887777123798312</v>
       </c>
-      <c r="I58" s="112" t="n">
+      <c r="I58" s="112">
         <f t="shared" si="107"/>
-        <v>-8.027231825716315</v>
-      </c>
-      <c r="J58" s="112" t="n">
+        <v>-8.0272318257163153</v>
+      </c>
+      <c r="J58" s="112">
         <f t="shared" si="107"/>
         <v>-11.904919236417033</v>
       </c>
-      <c r="K58" s="112" t="n">
+      <c r="K58" s="112">
         <f t="shared" si="107"/>
         <v>10.496144155150034</v>
       </c>
-      <c r="L58" s="112" t="n">
+      <c r="L58" s="112">
         <f t="shared" si="107"/>
-        <v>8.49267945063488</v>
-      </c>
-      <c r="M58" s="112" t="n">
+        <v>8.4926794506348795</v>
+      </c>
+      <c r="M58" s="112">
         <f t="shared" si="107"/>
-        <v>7.029444090935385</v>
+        <v>7.0294440909353852</v>
       </c>
       <c r="O58" s="107"/>
       <c r="P58" s="107"/>
@@ -24775,43 +24765,43 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112" t="n">
+      <c r="D59" s="112">
         <f>D28/D36</f>
         <v>2.5945631632504726</v>
       </c>
-      <c r="E59" s="112" t="n">
+      <c r="E59" s="112">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
         <v>1.4114807337839024</v>
       </c>
-      <c r="F59" s="112" t="n">
+      <c r="F59" s="112">
         <f t="shared" si="108"/>
         <v>1.4975215715072516</v>
       </c>
-      <c r="G59" s="112" t="n">
+      <c r="G59" s="112">
         <f t="shared" si="108"/>
         <v>1.6549432573356508</v>
       </c>
-      <c r="H59" s="112" t="n">
+      <c r="H59" s="112">
         <f t="shared" si="108"/>
         <v>1.2753440298059011</v>
       </c>
-      <c r="I59" s="112" t="n">
+      <c r="I59" s="112">
         <f t="shared" si="108"/>
         <v>0.9829456464992169</v>
       </c>
-      <c r="J59" s="112" t="n">
+      <c r="J59" s="112">
         <f t="shared" si="108"/>
         <v>3.177350016041065</v>
       </c>
-      <c r="K59" s="112" t="n">
+      <c r="K59" s="112">
         <f t="shared" si="108"/>
-        <v>0.8434109068071596</v>
-      </c>
-      <c r="L59" s="112" t="n">
+        <v>0.84341090680715958</v>
+      </c>
+      <c r="L59" s="112">
         <f t="shared" si="108"/>
-        <v>0.7935443541512758</v>
-      </c>
-      <c r="M59" s="112" t="n">
+        <v>0.79354435415127578</v>
+      </c>
+      <c r="M59" s="112">
         <f t="shared" si="108"/>
         <v>0.9636062021802424</v>
       </c>
@@ -24840,47 +24830,47 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="112" t="n">
+        <v>157</v>
+      </c>
+      <c r="D60" s="112">
         <f>D46/D9</f>
-        <v>2.178326474622771</v>
-      </c>
-      <c r="E60" s="112" t="n">
+        <v>2.1783264746227711</v>
+      </c>
+      <c r="E60" s="112">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
         <v>2.5108410769597334</v>
       </c>
-      <c r="F60" s="112" t="n">
+      <c r="F60" s="112">
         <f t="shared" si="109"/>
         <v>3.4921772363549506</v>
       </c>
-      <c r="G60" s="112" t="n">
+      <c r="G60" s="112">
         <f t="shared" si="109"/>
         <v>3.4609174660461584</v>
       </c>
-      <c r="H60" s="112" t="n">
+      <c r="H60" s="112">
         <f t="shared" si="109"/>
         <v>2.8021908383125114</v>
       </c>
-      <c r="I60" s="112" t="n">
+      <c r="I60" s="112">
         <f t="shared" si="109"/>
-        <v>4.295778105056455</v>
-      </c>
-      <c r="J60" s="112" t="n">
+        <v>4.2957781050564554</v>
+      </c>
+      <c r="J60" s="112">
         <f t="shared" si="109"/>
-        <v>4.198333333333333</v>
-      </c>
-      <c r="K60" s="112" t="n">
+        <v>4.1983333333333333</v>
+      </c>
+      <c r="K60" s="112">
         <f t="shared" si="109"/>
-        <v>4.348659863182685</v>
-      </c>
-      <c r="L60" s="112" t="n">
+        <v>4.3486598631826849</v>
+      </c>
+      <c r="L60" s="112">
         <f t="shared" si="109"/>
         <v>2.4272641331064473</v>
       </c>
-      <c r="M60" s="112" t="n">
+      <c r="M60" s="112">
         <f t="shared" si="109"/>
-        <v>2.224458320794463</v>
+        <v>2.2244583207944628</v>
       </c>
       <c r="O60" s="107"/>
       <c r="P60" s="107"/>
@@ -24963,7 +24953,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121" t="n">
+      <c r="D63" s="121">
         <f>(M20/I20)^0.2 - 1</f>
         <v>0.13649588400268642</v>
       </c>
@@ -24995,7 +24985,7 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121" t="n">
+      <c r="D64" s="121">
         <f>(M20/D20)^0.1 - 1</f>
         <v>0.15426326403797708</v>
       </c>
@@ -25005,7 +24995,7 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121" t="n">
+      <c r="D65" s="121">
         <f>(M6/I6)^0.2 - 1</f>
         <v>0.15788211475917868</v>
       </c>
@@ -25015,7 +25005,7 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121" t="n">
+      <c r="D66" s="121">
         <f>(M6/D6)^0.1 - 1</f>
         <v>0.11108306144077407</v>
       </c>
@@ -25025,7 +25015,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121" t="n">
+      <c r="D67" s="121">
         <f>(M3/I3)^0.2 - 1</f>
         <v>0.12128551705139334</v>
       </c>
@@ -25035,7 +25025,7 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121" t="n">
+      <c r="D68" s="121">
         <f>(M3/D3)^0.1 - 1</f>
         <v>0.11941349150526581</v>
       </c>
@@ -25045,9 +25035,9 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121" t="n">
+      <c r="D69" s="121">
         <f>(M9/I9)^0.2 - 1</f>
-        <v>0.2668169383126058</v>
+        <v>0.26681693831260578</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -25055,16 +25045,16 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121" t="n">
+      <c r="D70" s="121">
         <f>(M9/D9)^0.2 - 1</f>
-        <v>0.3229092651632963</v>
+        <v>0.32290926516329632</v>
       </c>
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121" t="n">
+      <c r="D71" s="121">
         <f>(M23/I23)^0.2 - 1</f>
         <v>0.12472371587191211</v>
       </c>
@@ -25073,7 +25063,7 @@
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121" t="n">
+      <c r="D72" s="121">
         <f>AVERAGE(I24:M24)</f>
         <v>0.19925073310688862</v>
       </c>
@@ -25082,9 +25072,9 @@
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121" t="n">
+      <c r="D73" s="121">
         <f>AVERAGE(I55:M55)</f>
-        <v>0.4459260512822049</v>
+        <v>0.44592605128220492</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="17.5" thickBot="1">
@@ -25130,45 +25120,45 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110" t="n">
+      <c r="D76" s="110">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
         <v>14.137954654428386</v>
       </c>
-      <c r="E76" s="110" t="n">
+      <c r="E76" s="110">
         <f t="shared" si="110"/>
-        <v>6.447861011158362</v>
-      </c>
-      <c r="F76" s="110" t="n">
+        <v>6.4478610111583619</v>
+      </c>
+      <c r="F76" s="110">
         <f t="shared" si="110"/>
-        <v>9.696512723845428</v>
-      </c>
-      <c r="G76" s="110" t="n">
+        <v>9.6965127238454283</v>
+      </c>
+      <c r="G76" s="110">
         <f t="shared" si="110"/>
-        <v>9.006187688164722</v>
-      </c>
-      <c r="H76" s="110" t="n">
+        <v>9.0061876881647223</v>
+      </c>
+      <c r="H76" s="110">
         <f t="shared" si="110"/>
-        <v>7.500070635436385</v>
-      </c>
-      <c r="I76" s="110" t="n">
+        <v>7.5000706354363853</v>
+      </c>
+      <c r="I76" s="110">
         <f t="shared" si="110"/>
-        <v>9.581816956463134</v>
-      </c>
-      <c r="J76" s="110" t="n">
+        <v>9.5818169564631344</v>
+      </c>
+      <c r="J76" s="110">
         <f t="shared" si="110"/>
-        <v>8.844751164226</v>
-      </c>
-      <c r="K76" s="110" t="n">
+        <v>8.8447511642260004</v>
+      </c>
+      <c r="K76" s="110">
         <f t="shared" si="110"/>
         <v>3.0657855411284163</v>
       </c>
-      <c r="L76" s="110" t="n">
+      <c r="L76" s="110">
         <f t="shared" si="110"/>
         <v>7.8769390359587526</v>
       </c>
-      <c r="M76" s="110" t="n">
+      <c r="M76" s="110">
         <f t="shared" si="110"/>
-        <v>8.527070350491696</v>
+        <v>8.5270703504916963</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -25178,82 +25168,82 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110" t="n">
+      <c r="D77" s="110">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
-        <v>91.8967052537845</v>
-      </c>
-      <c r="E77" s="110" t="n">
+        <v>91.896705253784503</v>
+      </c>
+      <c r="E77" s="110">
         <f t="shared" si="111"/>
-        <v>101.8369690011481</v>
-      </c>
-      <c r="F77" s="110" t="n">
+        <v>101.83696900114811</v>
+      </c>
+      <c r="F77" s="110">
         <f t="shared" si="111"/>
         <v>130.39290240811152</v>
       </c>
-      <c r="G77" s="110" t="n">
+      <c r="G77" s="110">
         <f t="shared" si="111"/>
-        <v>128.4081104400345</v>
-      </c>
-      <c r="H77" s="110" t="n">
+        <v>128.40811044003451</v>
+      </c>
+      <c r="H77" s="110">
         <f t="shared" si="111"/>
         <v>104.15930939768491</v>
       </c>
-      <c r="I77" s="110" t="n">
+      <c r="I77" s="110">
         <f t="shared" si="111"/>
-        <v>-67.33364906464598</v>
-      </c>
-      <c r="J77" s="110" t="n">
+        <v>-67.333649064645982</v>
+      </c>
+      <c r="J77" s="110">
         <f t="shared" si="111"/>
         <v>-96.45129711209006</v>
       </c>
-      <c r="K77" s="110" t="n">
+      <c r="K77" s="110">
         <f t="shared" si="111"/>
-        <v>35.24471252958693</v>
-      </c>
-      <c r="L77" s="110" t="n">
+        <v>35.244712529586927</v>
+      </c>
+      <c r="L77" s="110">
         <f t="shared" si="111"/>
-        <v>74.77325732054936</v>
-      </c>
-      <c r="M77" s="110" t="n">
+        <v>74.773257320549362</v>
+      </c>
+      <c r="M77" s="110">
         <f t="shared" si="111"/>
-        <v>68.46763463874588</v>
+        <v>68.467634638745878</v>
       </c>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D78" s="40" t="n">
+      <c r="C78" s="110">
+        <v>0</v>
+      </c>
+      <c r="D78" s="40">
         <v>22.709999084472656</v>
       </c>
-      <c r="E78" s="40" t="n">
+      <c r="E78" s="40">
         <v>11.489999771118164</v>
       </c>
-      <c r="F78" s="40" t="n">
-        <v>21.65999984741211</v>
-      </c>
-      <c r="G78" s="40" t="n">
+      <c r="F78" s="40">
+        <v>21.659999847412109</v>
+      </c>
+      <c r="G78" s="40">
         <v>17.270000457763672</v>
       </c>
-      <c r="H78" s="40" t="n">
+      <c r="H78" s="40">
         <v>14.239999771118164</v>
       </c>
-      <c r="I78" s="40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J78" s="40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K78" s="40" t="n">
-        <v>7.889999866485596</v>
-      </c>
-      <c r="L78" s="40" t="n">
+      <c r="I78" s="40">
+        <v>0</v>
+      </c>
+      <c r="J78" s="40">
+        <v>0</v>
+      </c>
+      <c r="K78" s="40">
+        <v>7.8899998664855957</v>
+      </c>
+      <c r="L78" s="40">
         <v>14.210000038146973</v>
       </c>
-      <c r="M78" s="40" t="n">
+      <c r="M78" s="40">
         <v>15.729999542236328</v>
       </c>
     </row>
@@ -25297,37 +25287,37 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D81" s="40" t="n">
+      <c r="C81" s="110">
+        <v>0</v>
+      </c>
+      <c r="D81" s="40">
         <v>18.510000228881836</v>
       </c>
-      <c r="E81" s="40" t="n">
+      <c r="E81" s="40">
         <v>28.450000762939453</v>
       </c>
-      <c r="F81" s="40" t="n">
-        <v>34.63999938964844</v>
-      </c>
-      <c r="G81" s="40" t="n">
+      <c r="F81" s="40">
+        <v>34.639999389648438</v>
+      </c>
+      <c r="G81" s="40">
         <v>16.920000076293945</v>
       </c>
-      <c r="H81" s="40" t="n">
+      <c r="H81" s="40">
         <v>23.469999313354492</v>
       </c>
-      <c r="I81" s="40" t="n">
-        <v>19.1299991607666</v>
-      </c>
-      <c r="J81" s="40" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="K81" s="40" t="n">
-        <v>23.09000015258789</v>
-      </c>
-      <c r="L81" s="40" t="n">
+      <c r="I81" s="40">
+        <v>19.129999160766602</v>
+      </c>
+      <c r="J81" s="40">
+        <v>39</v>
+      </c>
+      <c r="K81" s="40">
+        <v>23.090000152587891</v>
+      </c>
+      <c r="L81" s="40">
         <v>32.709999084472656</v>
       </c>
-      <c r="M81" s="40" t="n">
+      <c r="M81" s="40">
         <v>21.549999237060547</v>
       </c>
     </row>
@@ -25335,37 +25325,37 @@
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D82" s="40" t="n">
-        <v>14.09000015258789</v>
-      </c>
-      <c r="E82" s="40" t="n">
+      <c r="C82" s="110">
+        <v>0</v>
+      </c>
+      <c r="D82" s="40">
+        <v>14.090000152587891</v>
+      </c>
+      <c r="E82" s="40">
         <v>19.600000381469727</v>
       </c>
-      <c r="F82" s="40" t="n">
+      <c r="F82" s="40">
         <v>19.329999923706055</v>
       </c>
-      <c r="G82" s="40" t="n">
+      <c r="G82" s="40">
         <v>13.720000267028809</v>
       </c>
-      <c r="H82" s="40" t="n">
+      <c r="H82" s="40">
         <v>17.440000534057617</v>
       </c>
-      <c r="I82" s="40" t="n">
+      <c r="I82" s="40">
         <v>11.489999771118164</v>
       </c>
-      <c r="J82" s="40" t="n">
-        <v>9.800000190734863</v>
-      </c>
-      <c r="K82" s="40" t="n">
+      <c r="J82" s="40">
+        <v>9.8000001907348633</v>
+      </c>
+      <c r="K82" s="40">
         <v>10.710000038146973</v>
       </c>
-      <c r="L82" s="40" t="n">
+      <c r="L82" s="40">
         <v>10.670000076293945</v>
       </c>
-      <c r="M82" s="40" t="n">
+      <c r="M82" s="40">
         <v>12.720000267028809</v>
       </c>
     </row>
@@ -25373,8 +25363,8 @@
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110" t="n">
-        <v>3.990000009536743</v>
+      <c r="C83" s="110">
+        <v>3.9900000095367432</v>
       </c>
     </row>
   </sheetData>
